--- a/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>133544900</v>
+        <v>136678000</v>
       </c>
       <c r="E8" s="3">
-        <v>121461400</v>
+        <v>124311000</v>
       </c>
       <c r="F8" s="3">
-        <v>172295900</v>
+        <v>176338100</v>
       </c>
       <c r="G8" s="3">
-        <v>166926900</v>
+        <v>170843100</v>
       </c>
       <c r="H8" s="3">
-        <v>163727200</v>
+        <v>167568400</v>
       </c>
       <c r="I8" s="3">
-        <v>152862500</v>
+        <v>156448800</v>
       </c>
       <c r="J8" s="3">
-        <v>149078400</v>
+        <v>152575900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>102292300</v>
+        <v>104692200</v>
       </c>
       <c r="E9" s="3">
-        <v>109687100</v>
+        <v>112260400</v>
       </c>
       <c r="F9" s="3">
-        <v>136483200</v>
+        <v>139685300</v>
       </c>
       <c r="G9" s="3">
-        <v>133813200</v>
+        <v>136952600</v>
       </c>
       <c r="H9" s="3">
-        <v>129289000</v>
+        <v>132322200</v>
       </c>
       <c r="I9" s="3">
-        <v>120856000</v>
+        <v>123691400</v>
       </c>
       <c r="J9" s="3">
-        <v>117664300</v>
+        <v>120424800</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31252500</v>
+        <v>31985700</v>
       </c>
       <c r="E10" s="3">
-        <v>11774300</v>
+        <v>12050500</v>
       </c>
       <c r="F10" s="3">
-        <v>35812600</v>
+        <v>36652800</v>
       </c>
       <c r="G10" s="3">
-        <v>33113700</v>
+        <v>33890600</v>
       </c>
       <c r="H10" s="3">
-        <v>34438200</v>
+        <v>35246200</v>
       </c>
       <c r="I10" s="3">
-        <v>32006600</v>
+        <v>32757500</v>
       </c>
       <c r="J10" s="3">
-        <v>31414100</v>
+        <v>32151100</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5321100</v>
+        <v>5446000</v>
       </c>
       <c r="E12" s="3">
-        <v>13216500</v>
+        <v>13526600</v>
       </c>
       <c r="F12" s="3">
-        <v>6537000</v>
+        <v>6690300</v>
       </c>
       <c r="G12" s="3">
-        <v>6498100</v>
+        <v>6650500</v>
       </c>
       <c r="H12" s="3">
-        <v>5874700</v>
+        <v>6012500</v>
       </c>
       <c r="I12" s="3">
-        <v>5205400</v>
+        <v>5327600</v>
       </c>
       <c r="J12" s="3">
-        <v>4709700</v>
+        <v>4820200</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -859,25 +859,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1264700</v>
+        <v>1294400</v>
       </c>
       <c r="E14" s="3">
-        <v>1371400</v>
+        <v>1403600</v>
       </c>
       <c r="F14" s="3">
-        <v>6007300</v>
+        <v>6148300</v>
       </c>
       <c r="G14" s="3">
-        <v>132700</v>
+        <v>135800</v>
       </c>
       <c r="H14" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="I14" s="3">
-        <v>275300</v>
+        <v>281700</v>
       </c>
       <c r="J14" s="3">
-        <v>302200</v>
+        <v>309300</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>160600</v>
+        <v>164300</v>
       </c>
       <c r="E15" s="3">
-        <v>195500</v>
+        <v>200100</v>
       </c>
       <c r="F15" s="3">
-        <v>138600</v>
+        <v>141900</v>
       </c>
       <c r="G15" s="3">
-        <v>208500</v>
+        <v>213300</v>
       </c>
       <c r="H15" s="3">
-        <v>182500</v>
+        <v>186800</v>
       </c>
       <c r="I15" s="3">
-        <v>146600</v>
+        <v>150100</v>
       </c>
       <c r="J15" s="3">
-        <v>151600</v>
+        <v>155200</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>119223200</v>
+        <v>122020300</v>
       </c>
       <c r="E17" s="3">
-        <v>115809100</v>
+        <v>118526100</v>
       </c>
       <c r="F17" s="3">
-        <v>168210500</v>
+        <v>172156900</v>
       </c>
       <c r="G17" s="3">
-        <v>156702500</v>
+        <v>160378900</v>
       </c>
       <c r="H17" s="3">
-        <v>150714100</v>
+        <v>154250000</v>
       </c>
       <c r="I17" s="3">
-        <v>140781000</v>
+        <v>144083900</v>
       </c>
       <c r="J17" s="3">
-        <v>136372500</v>
+        <v>139571900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>14321700</v>
+        <v>14657700</v>
       </c>
       <c r="E18" s="3">
-        <v>5652300</v>
+        <v>5784900</v>
       </c>
       <c r="F18" s="3">
-        <v>4085400</v>
+        <v>4181200</v>
       </c>
       <c r="G18" s="3">
-        <v>10224300</v>
+        <v>10464200</v>
       </c>
       <c r="H18" s="3">
-        <v>13013100</v>
+        <v>13318400</v>
       </c>
       <c r="I18" s="3">
-        <v>12081500</v>
+        <v>12365000</v>
       </c>
       <c r="J18" s="3">
-        <v>12705900</v>
+        <v>13004000</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1822200</v>
+        <v>1865000</v>
       </c>
       <c r="E20" s="3">
-        <v>559500</v>
+        <v>572700</v>
       </c>
       <c r="F20" s="3">
-        <v>415900</v>
+        <v>425700</v>
       </c>
       <c r="G20" s="3">
-        <v>1001400</v>
+        <v>1024900</v>
       </c>
       <c r="H20" s="3">
-        <v>1287600</v>
+        <v>1317900</v>
       </c>
       <c r="I20" s="3">
-        <v>778000</v>
+        <v>796200</v>
       </c>
       <c r="J20" s="3">
-        <v>313200</v>
+        <v>320500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>23099500</v>
+        <v>23510300</v>
       </c>
       <c r="E21" s="3">
-        <v>15137500</v>
+        <v>15324400</v>
       </c>
       <c r="F21" s="3">
-        <v>12225100</v>
+        <v>12366400</v>
       </c>
       <c r="G21" s="3">
-        <v>17508700</v>
+        <v>17801000</v>
       </c>
       <c r="H21" s="3">
-        <v>19956900</v>
+        <v>20318500</v>
       </c>
       <c r="I21" s="3">
-        <v>18318300</v>
+        <v>18645200</v>
       </c>
       <c r="J21" s="3">
-        <v>18384200</v>
+        <v>18714400</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>374000</v>
+        <v>382800</v>
       </c>
       <c r="E22" s="3">
-        <v>270300</v>
+        <v>276600</v>
       </c>
       <c r="F22" s="3">
-        <v>681200</v>
+        <v>697200</v>
       </c>
       <c r="G22" s="3">
-        <v>658300</v>
+        <v>673700</v>
       </c>
       <c r="H22" s="3">
-        <v>370000</v>
+        <v>378700</v>
       </c>
       <c r="I22" s="3">
-        <v>318200</v>
+        <v>325600</v>
       </c>
       <c r="J22" s="3">
-        <v>308200</v>
+        <v>315400</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>15769900</v>
+        <v>16139900</v>
       </c>
       <c r="E23" s="3">
-        <v>5941500</v>
+        <v>6080900</v>
       </c>
       <c r="F23" s="3">
-        <v>3820000</v>
+        <v>3909700</v>
       </c>
       <c r="G23" s="3">
-        <v>10567500</v>
+        <v>10815400</v>
       </c>
       <c r="H23" s="3">
-        <v>13930700</v>
+        <v>14257500</v>
       </c>
       <c r="I23" s="3">
-        <v>12541300</v>
+        <v>12835500</v>
       </c>
       <c r="J23" s="3">
-        <v>12710900</v>
+        <v>13009100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>4748600</v>
+        <v>4860000</v>
       </c>
       <c r="E24" s="3">
-        <v>1921000</v>
+        <v>1966100</v>
       </c>
       <c r="F24" s="3">
-        <v>1118100</v>
+        <v>1144300</v>
       </c>
       <c r="G24" s="3">
-        <v>3005200</v>
+        <v>3075700</v>
       </c>
       <c r="H24" s="3">
-        <v>3341300</v>
+        <v>3419700</v>
       </c>
       <c r="I24" s="3">
-        <v>3780100</v>
+        <v>3868800</v>
       </c>
       <c r="J24" s="3">
-        <v>4022500</v>
+        <v>4116900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11021300</v>
+        <v>11279800</v>
       </c>
       <c r="E26" s="3">
-        <v>4020500</v>
+        <v>4114800</v>
       </c>
       <c r="F26" s="3">
-        <v>2702000</v>
+        <v>2765300</v>
       </c>
       <c r="G26" s="3">
-        <v>7562300</v>
+        <v>7739700</v>
       </c>
       <c r="H26" s="3">
-        <v>10589400</v>
+        <v>10837800</v>
       </c>
       <c r="I26" s="3">
-        <v>8761200</v>
+        <v>8966700</v>
       </c>
       <c r="J26" s="3">
-        <v>8688400</v>
+        <v>8892200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>10632300</v>
+        <v>10881700</v>
       </c>
       <c r="E27" s="3">
-        <v>3639500</v>
+        <v>3724900</v>
       </c>
       <c r="F27" s="3">
-        <v>2370800</v>
+        <v>2426400</v>
       </c>
       <c r="G27" s="3">
-        <v>7230200</v>
+        <v>7399800</v>
       </c>
       <c r="H27" s="3">
-        <v>10251300</v>
+        <v>10491800</v>
       </c>
       <c r="I27" s="3">
-        <v>8503800</v>
+        <v>8703300</v>
       </c>
       <c r="J27" s="3">
-        <v>8402100</v>
+        <v>8599200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1233,10 +1233,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>12313900</v>
+        <v>12602800</v>
       </c>
       <c r="E29" s="3">
-        <v>-21900</v>
+        <v>-22500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1822200</v>
+        <v>-1865000</v>
       </c>
       <c r="E32" s="3">
-        <v>-559500</v>
+        <v>-572700</v>
       </c>
       <c r="F32" s="3">
-        <v>-415900</v>
+        <v>-425700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1001400</v>
+        <v>-1024900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1287600</v>
+        <v>-1317900</v>
       </c>
       <c r="I32" s="3">
-        <v>-778000</v>
+        <v>-796200</v>
       </c>
       <c r="J32" s="3">
-        <v>-313200</v>
+        <v>-320500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22946200</v>
+        <v>23484500</v>
       </c>
       <c r="E33" s="3">
-        <v>3617600</v>
+        <v>3702400</v>
       </c>
       <c r="F33" s="3">
-        <v>2370800</v>
+        <v>2426400</v>
       </c>
       <c r="G33" s="3">
-        <v>7230200</v>
+        <v>7399800</v>
       </c>
       <c r="H33" s="3">
-        <v>10251300</v>
+        <v>10491800</v>
       </c>
       <c r="I33" s="3">
-        <v>8503800</v>
+        <v>8703300</v>
       </c>
       <c r="J33" s="3">
-        <v>8402100</v>
+        <v>8599200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22946200</v>
+        <v>23484500</v>
       </c>
       <c r="E35" s="3">
-        <v>3617600</v>
+        <v>3702400</v>
       </c>
       <c r="F35" s="3">
-        <v>2370800</v>
+        <v>2426400</v>
       </c>
       <c r="G35" s="3">
-        <v>7230200</v>
+        <v>7399800</v>
       </c>
       <c r="H35" s="3">
-        <v>10251300</v>
+        <v>10491800</v>
       </c>
       <c r="I35" s="3">
-        <v>8503800</v>
+        <v>8703300</v>
       </c>
       <c r="J35" s="3">
-        <v>8402100</v>
+        <v>8599200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23059900</v>
+        <v>23600900</v>
       </c>
       <c r="E41" s="3">
-        <v>22988100</v>
+        <v>23527400</v>
       </c>
       <c r="F41" s="3">
-        <v>18833900</v>
+        <v>19275800</v>
       </c>
       <c r="G41" s="3">
-        <v>15811800</v>
+        <v>16182700</v>
       </c>
       <c r="H41" s="3">
-        <v>12040600</v>
+        <v>12323100</v>
       </c>
       <c r="I41" s="3">
-        <v>10952400</v>
+        <v>11209400</v>
       </c>
       <c r="J41" s="3">
-        <v>9910200</v>
+        <v>10142700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6726500</v>
+        <v>6884300</v>
       </c>
       <c r="E42" s="3">
-        <v>5389000</v>
+        <v>5515400</v>
       </c>
       <c r="F42" s="3">
-        <v>7871500</v>
+        <v>8056200</v>
       </c>
       <c r="G42" s="3">
-        <v>8922700</v>
+        <v>9132100</v>
       </c>
       <c r="H42" s="3">
-        <v>12695900</v>
+        <v>12993800</v>
       </c>
       <c r="I42" s="3">
-        <v>9622900</v>
+        <v>9848700</v>
       </c>
       <c r="J42" s="3">
-        <v>7106500</v>
+        <v>7273200</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>47193000</v>
+        <v>48300200</v>
       </c>
       <c r="E43" s="3">
-        <v>58529400</v>
+        <v>59902600</v>
       </c>
       <c r="F43" s="3">
-        <v>69423000</v>
+        <v>71051800</v>
       </c>
       <c r="G43" s="3">
-        <v>64574700</v>
+        <v>66089700</v>
       </c>
       <c r="H43" s="3">
-        <v>69192600</v>
+        <v>70816000</v>
       </c>
       <c r="I43" s="3">
-        <v>53922400</v>
+        <v>55187500</v>
       </c>
       <c r="J43" s="3">
-        <v>49320400</v>
+        <v>50477500</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21410200</v>
+        <v>21912500</v>
       </c>
       <c r="E44" s="3">
-        <v>26375200</v>
+        <v>26994000</v>
       </c>
       <c r="F44" s="3">
-        <v>29679600</v>
+        <v>30375900</v>
       </c>
       <c r="G44" s="3">
-        <v>29412300</v>
+        <v>30102400</v>
       </c>
       <c r="H44" s="3">
-        <v>25619200</v>
+        <v>26220300</v>
       </c>
       <c r="I44" s="3">
-        <v>25318000</v>
+        <v>25912000</v>
       </c>
       <c r="J44" s="3">
-        <v>23698200</v>
+        <v>24254200</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4271900</v>
+        <v>4372100</v>
       </c>
       <c r="E45" s="3">
-        <v>1682600</v>
+        <v>1722100</v>
       </c>
       <c r="F45" s="3">
-        <v>1659700</v>
+        <v>1698600</v>
       </c>
       <c r="G45" s="3">
-        <v>2575300</v>
+        <v>2635700</v>
       </c>
       <c r="H45" s="3">
-        <v>7627100</v>
+        <v>7806100</v>
       </c>
       <c r="I45" s="3">
-        <v>1970900</v>
+        <v>2017100</v>
       </c>
       <c r="J45" s="3">
-        <v>1572900</v>
+        <v>1609800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>102661000</v>
+        <v>105070000</v>
       </c>
       <c r="E46" s="3">
-        <v>114964000</v>
+        <v>117662000</v>
       </c>
       <c r="F46" s="3">
-        <v>127468000</v>
+        <v>130458000</v>
       </c>
       <c r="G46" s="3">
-        <v>121297000</v>
+        <v>124143000</v>
       </c>
       <c r="H46" s="3">
-        <v>106618000</v>
+        <v>109119000</v>
       </c>
       <c r="I46" s="3">
-        <v>101787000</v>
+        <v>104175000</v>
       </c>
       <c r="J46" s="3">
-        <v>91608200</v>
+        <v>93757400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64130800</v>
+        <v>65635400</v>
       </c>
       <c r="E47" s="3">
-        <v>62712500</v>
+        <v>64183800</v>
       </c>
       <c r="F47" s="3">
-        <v>62642700</v>
+        <v>64112400</v>
       </c>
       <c r="G47" s="3">
-        <v>59651500</v>
+        <v>61051000</v>
       </c>
       <c r="H47" s="3">
-        <v>58282100</v>
+        <v>59649400</v>
       </c>
       <c r="I47" s="3">
-        <v>49860000</v>
+        <v>51029800</v>
       </c>
       <c r="J47" s="3">
-        <v>47037400</v>
+        <v>48140900</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>72141900</v>
+        <v>73834500</v>
       </c>
       <c r="E48" s="3">
-        <v>82582700</v>
+        <v>84520200</v>
       </c>
       <c r="F48" s="3">
-        <v>88394600</v>
+        <v>90468400</v>
       </c>
       <c r="G48" s="3">
-        <v>80214900</v>
+        <v>82096800</v>
       </c>
       <c r="H48" s="3">
-        <v>149720000</v>
+        <v>153232000</v>
       </c>
       <c r="I48" s="3">
-        <v>73132400</v>
+        <v>74848100</v>
       </c>
       <c r="J48" s="3">
-        <v>63099500</v>
+        <v>64579900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14966000</v>
+        <v>15317100</v>
       </c>
       <c r="E49" s="3">
-        <v>16356400</v>
+        <v>16740100</v>
       </c>
       <c r="F49" s="3">
-        <v>15936500</v>
+        <v>16310300</v>
       </c>
       <c r="G49" s="3">
-        <v>14762500</v>
+        <v>15108900</v>
       </c>
       <c r="H49" s="3">
-        <v>27398600</v>
+        <v>28041400</v>
       </c>
       <c r="I49" s="3">
-        <v>12066500</v>
+        <v>12349600</v>
       </c>
       <c r="J49" s="3">
-        <v>10042800</v>
+        <v>10278400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5255300</v>
+        <v>5378600</v>
       </c>
       <c r="E52" s="3">
-        <v>8378200</v>
+        <v>8574700</v>
       </c>
       <c r="F52" s="3">
-        <v>7210200</v>
+        <v>7379400</v>
       </c>
       <c r="G52" s="3">
-        <v>4961100</v>
+        <v>5077500</v>
       </c>
       <c r="H52" s="3">
-        <v>5617400</v>
+        <v>5749100</v>
       </c>
       <c r="I52" s="3">
-        <v>5510600</v>
+        <v>5639900</v>
       </c>
       <c r="J52" s="3">
-        <v>4813500</v>
+        <v>4926400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>259155000</v>
+        <v>265236000</v>
       </c>
       <c r="E54" s="3">
-        <v>284994000</v>
+        <v>291680000</v>
       </c>
       <c r="F54" s="3">
-        <v>301652000</v>
+        <v>308729000</v>
       </c>
       <c r="G54" s="3">
-        <v>280887000</v>
+        <v>287477000</v>
       </c>
       <c r="H54" s="3">
-        <v>254681000</v>
+        <v>260656000</v>
       </c>
       <c r="I54" s="3">
-        <v>242356000</v>
+        <v>248042000</v>
       </c>
       <c r="J54" s="3">
-        <v>216601000</v>
+        <v>221683000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10627300</v>
+        <v>10876600</v>
       </c>
       <c r="E57" s="3">
-        <v>12345800</v>
+        <v>12635500</v>
       </c>
       <c r="F57" s="3">
-        <v>12674000</v>
+        <v>12971300</v>
       </c>
       <c r="G57" s="3">
-        <v>14148100</v>
+        <v>14480000</v>
       </c>
       <c r="H57" s="3">
-        <v>12418600</v>
+        <v>12710000</v>
       </c>
       <c r="I57" s="3">
-        <v>11536900</v>
+        <v>11807600</v>
       </c>
       <c r="J57" s="3">
-        <v>10520600</v>
+        <v>10767400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52164000</v>
+        <v>53387800</v>
       </c>
       <c r="E58" s="3">
-        <v>59148800</v>
+        <v>60536500</v>
       </c>
       <c r="F58" s="3">
-        <v>62438200</v>
+        <v>63903100</v>
       </c>
       <c r="G58" s="3">
-        <v>56093800</v>
+        <v>57409800</v>
       </c>
       <c r="H58" s="3">
-        <v>48619300</v>
+        <v>49759900</v>
       </c>
       <c r="I58" s="3">
-        <v>47165100</v>
+        <v>48271600</v>
       </c>
       <c r="J58" s="3">
-        <v>41203600</v>
+        <v>42170300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24655700</v>
+        <v>25234200</v>
       </c>
       <c r="E59" s="3">
-        <v>28054900</v>
+        <v>28713100</v>
       </c>
       <c r="F59" s="3">
-        <v>30414700</v>
+        <v>31128300</v>
       </c>
       <c r="G59" s="3">
-        <v>27455400</v>
+        <v>28099600</v>
       </c>
       <c r="H59" s="3">
-        <v>35678000</v>
+        <v>36515000</v>
       </c>
       <c r="I59" s="3">
-        <v>25535400</v>
+        <v>26134500</v>
       </c>
       <c r="J59" s="3">
-        <v>25156400</v>
+        <v>25746600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87447000</v>
+        <v>89498600</v>
       </c>
       <c r="E60" s="3">
-        <v>99549500</v>
+        <v>101885000</v>
       </c>
       <c r="F60" s="3">
-        <v>105527000</v>
+        <v>108003000</v>
       </c>
       <c r="G60" s="3">
-        <v>97697300</v>
+        <v>99989400</v>
       </c>
       <c r="H60" s="3">
-        <v>87396200</v>
+        <v>89446600</v>
       </c>
       <c r="I60" s="3">
-        <v>84237400</v>
+        <v>86213700</v>
       </c>
       <c r="J60" s="3">
-        <v>76880600</v>
+        <v>78684300</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73351800</v>
+        <v>75072700</v>
       </c>
       <c r="E61" s="3">
-        <v>86314000</v>
+        <v>88339000</v>
       </c>
       <c r="F61" s="3">
-        <v>98921100</v>
+        <v>101242000</v>
       </c>
       <c r="G61" s="3">
-        <v>88431500</v>
+        <v>90506200</v>
       </c>
       <c r="H61" s="3">
-        <v>78174200</v>
+        <v>80008300</v>
       </c>
       <c r="I61" s="3">
-        <v>70215000</v>
+        <v>71862300</v>
       </c>
       <c r="J61" s="3">
-        <v>59675400</v>
+        <v>61075500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25379800</v>
+        <v>25975300</v>
       </c>
       <c r="E62" s="3">
-        <v>37044400</v>
+        <v>37913500</v>
       </c>
       <c r="F62" s="3">
-        <v>34526000</v>
+        <v>35336000</v>
       </c>
       <c r="G62" s="3">
-        <v>28876700</v>
+        <v>29554200</v>
       </c>
       <c r="H62" s="3">
-        <v>26485000</v>
+        <v>27106300</v>
       </c>
       <c r="I62" s="3">
-        <v>28924600</v>
+        <v>29603200</v>
       </c>
       <c r="J62" s="3">
-        <v>25563400</v>
+        <v>26163100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>187392000</v>
+        <v>191788000</v>
       </c>
       <c r="E66" s="3">
-        <v>224461000</v>
+        <v>229727000</v>
       </c>
       <c r="F66" s="3">
-        <v>240467000</v>
+        <v>246109000</v>
       </c>
       <c r="G66" s="3">
-        <v>216388000</v>
+        <v>221465000</v>
       </c>
       <c r="H66" s="3">
-        <v>190978000</v>
+        <v>195459000</v>
       </c>
       <c r="I66" s="3">
-        <v>184557000</v>
+        <v>188887000</v>
       </c>
       <c r="J66" s="3">
-        <v>163180000</v>
+        <v>167008000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56043900</v>
+        <v>57358800</v>
       </c>
       <c r="E72" s="3">
-        <v>46988500</v>
+        <v>48090900</v>
       </c>
       <c r="F72" s="3">
-        <v>46208500</v>
+        <v>47292600</v>
       </c>
       <c r="G72" s="3">
-        <v>49361300</v>
+        <v>50519400</v>
       </c>
       <c r="H72" s="3">
-        <v>47429400</v>
+        <v>48542100</v>
       </c>
       <c r="I72" s="3">
-        <v>40687900</v>
+        <v>41642500</v>
       </c>
       <c r="J72" s="3">
-        <v>36894800</v>
+        <v>37760400</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71763900</v>
+        <v>73447600</v>
       </c>
       <c r="E76" s="3">
-        <v>60533200</v>
+        <v>61953400</v>
       </c>
       <c r="F76" s="3">
-        <v>61184500</v>
+        <v>62620000</v>
       </c>
       <c r="G76" s="3">
-        <v>64498900</v>
+        <v>66012100</v>
       </c>
       <c r="H76" s="3">
-        <v>63702900</v>
+        <v>65197500</v>
       </c>
       <c r="I76" s="3">
-        <v>57799300</v>
+        <v>59155400</v>
       </c>
       <c r="J76" s="3">
-        <v>53421700</v>
+        <v>54675100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22946200</v>
+        <v>23484500</v>
       </c>
       <c r="E81" s="3">
-        <v>3617600</v>
+        <v>3702400</v>
       </c>
       <c r="F81" s="3">
-        <v>2370800</v>
+        <v>2426400</v>
       </c>
       <c r="G81" s="3">
-        <v>7230200</v>
+        <v>7399800</v>
       </c>
       <c r="H81" s="3">
-        <v>10251300</v>
+        <v>10491800</v>
       </c>
       <c r="I81" s="3">
-        <v>8503800</v>
+        <v>8703300</v>
       </c>
       <c r="J81" s="3">
-        <v>8402100</v>
+        <v>8599200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6961900</v>
+        <v>7125200</v>
       </c>
       <c r="E83" s="3">
-        <v>8933700</v>
+        <v>9143300</v>
       </c>
       <c r="F83" s="3">
-        <v>7730800</v>
+        <v>7912200</v>
       </c>
       <c r="G83" s="3">
-        <v>6288600</v>
+        <v>6436100</v>
       </c>
       <c r="H83" s="3">
-        <v>5661200</v>
+        <v>5794100</v>
       </c>
       <c r="I83" s="3">
-        <v>5463800</v>
+        <v>5591900</v>
       </c>
       <c r="J83" s="3">
-        <v>5370000</v>
+        <v>5496000</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24423300</v>
+        <v>24996300</v>
       </c>
       <c r="E89" s="3">
-        <v>22273900</v>
+        <v>22796500</v>
       </c>
       <c r="F89" s="3">
-        <v>7867500</v>
+        <v>8052100</v>
       </c>
       <c r="G89" s="3">
-        <v>342100</v>
+        <v>350100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1647700</v>
+        <v>-1686400</v>
       </c>
       <c r="I89" s="3">
-        <v>3701400</v>
+        <v>3788200</v>
       </c>
       <c r="J89" s="3">
-        <v>221400</v>
+        <v>226600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4567100</v>
+        <v>-4674200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5726100</v>
+        <v>-5860400</v>
       </c>
       <c r="F91" s="3">
-        <v>-7180300</v>
+        <v>-7348700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7514400</v>
+        <v>-7690700</v>
       </c>
       <c r="H91" s="3">
-        <v>-6726500</v>
+        <v>-6884300</v>
       </c>
       <c r="I91" s="3">
-        <v>-5873700</v>
+        <v>-6011500</v>
       </c>
       <c r="J91" s="3">
-        <v>-5061800</v>
+        <v>-5180600</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6209800</v>
+        <v>-6355500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6404300</v>
+        <v>-6554600</v>
       </c>
       <c r="F94" s="3">
-        <v>-10579400</v>
+        <v>-10827600</v>
       </c>
       <c r="G94" s="3">
-        <v>-9895200</v>
+        <v>-10127400</v>
       </c>
       <c r="H94" s="3">
-        <v>-9493300</v>
+        <v>-9716000</v>
       </c>
       <c r="I94" s="3">
-        <v>-14627900</v>
+        <v>-14971100</v>
       </c>
       <c r="J94" s="3">
-        <v>-9696700</v>
+        <v>-9924200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1440200</v>
+        <v>-1474000</v>
       </c>
       <c r="E96" s="3">
-        <v>-960500</v>
+        <v>-983000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3468000</v>
+        <v>-3549300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3894800</v>
+        <v>-3986200</v>
       </c>
       <c r="H96" s="3">
-        <v>-3468000</v>
+        <v>-3549300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3468000</v>
+        <v>-3549300</v>
       </c>
       <c r="J96" s="3">
-        <v>-2614200</v>
+        <v>-2675500</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19009400</v>
+        <v>-19455400</v>
       </c>
       <c r="E100" s="3">
-        <v>-10719100</v>
+        <v>-10970500</v>
       </c>
       <c r="F100" s="3">
-        <v>5613400</v>
+        <v>5745100</v>
       </c>
       <c r="G100" s="3">
-        <v>13191600</v>
+        <v>13501100</v>
       </c>
       <c r="H100" s="3">
-        <v>13094900</v>
+        <v>13402100</v>
       </c>
       <c r="I100" s="3">
-        <v>11977800</v>
+        <v>12258800</v>
       </c>
       <c r="J100" s="3">
-        <v>9606000</v>
+        <v>9831300</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>867700</v>
+        <v>888100</v>
       </c>
       <c r="E101" s="3">
-        <v>-996400</v>
+        <v>-1019800</v>
       </c>
       <c r="F101" s="3">
-        <v>120700</v>
+        <v>123500</v>
       </c>
       <c r="G101" s="3">
-        <v>132700</v>
+        <v>135800</v>
       </c>
       <c r="H101" s="3">
-        <v>-865700</v>
+        <v>-886100</v>
       </c>
       <c r="I101" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="J101" s="3">
-        <v>137600</v>
+        <v>140900</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="E102" s="3">
-        <v>4154200</v>
+        <v>4251600</v>
       </c>
       <c r="F102" s="3">
-        <v>3022100</v>
+        <v>3093000</v>
       </c>
       <c r="G102" s="3">
-        <v>3771200</v>
+        <v>3859600</v>
       </c>
       <c r="H102" s="3">
-        <v>1088200</v>
+        <v>1113700</v>
       </c>
       <c r="I102" s="3">
-        <v>1042300</v>
+        <v>1066700</v>
       </c>
       <c r="J102" s="3">
-        <v>268300</v>
+        <v>274600</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>MBGAF</t>
   </si>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>136678000</v>
+        <v>141658800</v>
       </c>
       <c r="E8" s="3">
-        <v>124311000</v>
+        <v>128841100</v>
       </c>
       <c r="F8" s="3">
-        <v>176338100</v>
+        <v>182764200</v>
       </c>
       <c r="G8" s="3">
-        <v>170843100</v>
+        <v>177069000</v>
       </c>
       <c r="H8" s="3">
-        <v>167568400</v>
+        <v>173674900</v>
       </c>
       <c r="I8" s="3">
-        <v>156448800</v>
+        <v>162150100</v>
       </c>
       <c r="J8" s="3">
-        <v>152575900</v>
+        <v>158136100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>104692200</v>
+        <v>108507400</v>
       </c>
       <c r="E9" s="3">
-        <v>112260400</v>
+        <v>116351400</v>
       </c>
       <c r="F9" s="3">
-        <v>139685300</v>
+        <v>144775700</v>
       </c>
       <c r="G9" s="3">
-        <v>136952600</v>
+        <v>141943400</v>
       </c>
       <c r="H9" s="3">
-        <v>132322200</v>
+        <v>137144300</v>
       </c>
       <c r="I9" s="3">
-        <v>123691400</v>
+        <v>128198900</v>
       </c>
       <c r="J9" s="3">
-        <v>120424800</v>
+        <v>124813300</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31985700</v>
+        <v>33151400</v>
       </c>
       <c r="E10" s="3">
-        <v>12050500</v>
+        <v>12489700</v>
       </c>
       <c r="F10" s="3">
-        <v>36652800</v>
+        <v>37988500</v>
       </c>
       <c r="G10" s="3">
-        <v>33890600</v>
+        <v>35125600</v>
       </c>
       <c r="H10" s="3">
-        <v>35246200</v>
+        <v>36530600</v>
       </c>
       <c r="I10" s="3">
-        <v>32757500</v>
+        <v>33951200</v>
       </c>
       <c r="J10" s="3">
-        <v>32151100</v>
+        <v>33322800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -805,25 +805,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5446000</v>
+        <v>5644400</v>
       </c>
       <c r="E12" s="3">
-        <v>13526600</v>
+        <v>14019600</v>
       </c>
       <c r="F12" s="3">
-        <v>6690300</v>
+        <v>6934100</v>
       </c>
       <c r="G12" s="3">
-        <v>6650500</v>
+        <v>6892900</v>
       </c>
       <c r="H12" s="3">
-        <v>6012500</v>
+        <v>6231600</v>
       </c>
       <c r="I12" s="3">
-        <v>5327600</v>
+        <v>5521700</v>
       </c>
       <c r="J12" s="3">
-        <v>4820200</v>
+        <v>4995900</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -859,25 +859,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1294400</v>
+        <v>1341500</v>
       </c>
       <c r="E14" s="3">
-        <v>1403600</v>
+        <v>1454800</v>
       </c>
       <c r="F14" s="3">
-        <v>6148300</v>
+        <v>6372300</v>
       </c>
       <c r="G14" s="3">
-        <v>135800</v>
+        <v>140700</v>
       </c>
       <c r="H14" s="3">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="I14" s="3">
-        <v>281700</v>
+        <v>292000</v>
       </c>
       <c r="J14" s="3">
-        <v>309300</v>
+        <v>320600</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>164300</v>
+        <v>170300</v>
       </c>
       <c r="E15" s="3">
-        <v>200100</v>
+        <v>207400</v>
       </c>
       <c r="F15" s="3">
-        <v>141900</v>
+        <v>147100</v>
       </c>
       <c r="G15" s="3">
-        <v>213300</v>
+        <v>221100</v>
       </c>
       <c r="H15" s="3">
-        <v>186800</v>
+        <v>193600</v>
       </c>
       <c r="I15" s="3">
-        <v>150100</v>
+        <v>155500</v>
       </c>
       <c r="J15" s="3">
-        <v>155200</v>
+        <v>160800</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>122020300</v>
+        <v>126467000</v>
       </c>
       <c r="E17" s="3">
-        <v>118526100</v>
+        <v>122845400</v>
       </c>
       <c r="F17" s="3">
-        <v>172156900</v>
+        <v>178430600</v>
       </c>
       <c r="G17" s="3">
-        <v>160378900</v>
+        <v>166223400</v>
       </c>
       <c r="H17" s="3">
-        <v>154250000</v>
+        <v>159871200</v>
       </c>
       <c r="I17" s="3">
-        <v>144083900</v>
+        <v>149334600</v>
       </c>
       <c r="J17" s="3">
-        <v>139571900</v>
+        <v>144658200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>14657700</v>
+        <v>15191800</v>
       </c>
       <c r="E18" s="3">
-        <v>5784900</v>
+        <v>5995700</v>
       </c>
       <c r="F18" s="3">
-        <v>4181200</v>
+        <v>4333600</v>
       </c>
       <c r="G18" s="3">
-        <v>10464200</v>
+        <v>10845600</v>
       </c>
       <c r="H18" s="3">
-        <v>13318400</v>
+        <v>13803700</v>
       </c>
       <c r="I18" s="3">
-        <v>12365000</v>
+        <v>12815600</v>
       </c>
       <c r="J18" s="3">
-        <v>13004000</v>
+        <v>13477900</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1865000</v>
+        <v>1933000</v>
       </c>
       <c r="E20" s="3">
-        <v>572700</v>
+        <v>593500</v>
       </c>
       <c r="F20" s="3">
-        <v>425700</v>
+        <v>441200</v>
       </c>
       <c r="G20" s="3">
-        <v>1024900</v>
+        <v>1062200</v>
       </c>
       <c r="H20" s="3">
-        <v>1317900</v>
+        <v>1365900</v>
       </c>
       <c r="I20" s="3">
-        <v>796200</v>
+        <v>825200</v>
       </c>
       <c r="J20" s="3">
-        <v>320500</v>
+        <v>332200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>23510300</v>
+        <v>26569000</v>
       </c>
       <c r="E21" s="3">
-        <v>15324400</v>
+        <v>14761900</v>
       </c>
       <c r="F21" s="3">
-        <v>12366400</v>
+        <v>11422700</v>
       </c>
       <c r="G21" s="3">
-        <v>17801000</v>
+        <v>17892600</v>
       </c>
       <c r="H21" s="3">
-        <v>20318500</v>
+        <v>20945600</v>
       </c>
       <c r="I21" s="3">
-        <v>18645200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>18714400</v>
+        <v>19317700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>382800</v>
+        <v>396800</v>
       </c>
       <c r="E22" s="3">
-        <v>276600</v>
+        <v>286700</v>
       </c>
       <c r="F22" s="3">
-        <v>697200</v>
+        <v>722600</v>
       </c>
       <c r="G22" s="3">
-        <v>673700</v>
+        <v>698300</v>
       </c>
       <c r="H22" s="3">
-        <v>378700</v>
+        <v>392500</v>
       </c>
       <c r="I22" s="3">
-        <v>325600</v>
+        <v>337500</v>
       </c>
       <c r="J22" s="3">
-        <v>315400</v>
+        <v>326900</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>16139900</v>
+        <v>16728000</v>
       </c>
       <c r="E23" s="3">
-        <v>6080900</v>
+        <v>6302500</v>
       </c>
       <c r="F23" s="3">
-        <v>3909700</v>
+        <v>4052100</v>
       </c>
       <c r="G23" s="3">
-        <v>10815400</v>
+        <v>11209500</v>
       </c>
       <c r="H23" s="3">
-        <v>14257500</v>
+        <v>14777100</v>
       </c>
       <c r="I23" s="3">
-        <v>12835500</v>
+        <v>13303300</v>
       </c>
       <c r="J23" s="3">
-        <v>13009100</v>
+        <v>13483200</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>4860000</v>
+        <v>5037100</v>
       </c>
       <c r="E24" s="3">
-        <v>1966100</v>
+        <v>2037700</v>
       </c>
       <c r="F24" s="3">
-        <v>1144300</v>
+        <v>1186000</v>
       </c>
       <c r="G24" s="3">
-        <v>3075700</v>
+        <v>3187800</v>
       </c>
       <c r="H24" s="3">
-        <v>3419700</v>
+        <v>3544300</v>
       </c>
       <c r="I24" s="3">
-        <v>3868800</v>
+        <v>4009800</v>
       </c>
       <c r="J24" s="3">
-        <v>4116900</v>
+        <v>4266900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11279800</v>
+        <v>11690900</v>
       </c>
       <c r="E26" s="3">
-        <v>4114800</v>
+        <v>4264800</v>
       </c>
       <c r="F26" s="3">
-        <v>2765300</v>
+        <v>2866100</v>
       </c>
       <c r="G26" s="3">
-        <v>7739700</v>
+        <v>8021800</v>
       </c>
       <c r="H26" s="3">
-        <v>10837800</v>
+        <v>11232800</v>
       </c>
       <c r="I26" s="3">
-        <v>8966700</v>
+        <v>9293500</v>
       </c>
       <c r="J26" s="3">
-        <v>8892200</v>
+        <v>9216200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>10881700</v>
+        <v>11278300</v>
       </c>
       <c r="E27" s="3">
-        <v>3724900</v>
+        <v>3860600</v>
       </c>
       <c r="F27" s="3">
-        <v>2426400</v>
+        <v>2514900</v>
       </c>
       <c r="G27" s="3">
-        <v>7399800</v>
+        <v>7669400</v>
       </c>
       <c r="H27" s="3">
-        <v>10491800</v>
+        <v>10874100</v>
       </c>
       <c r="I27" s="3">
-        <v>8703300</v>
+        <v>9020500</v>
       </c>
       <c r="J27" s="3">
-        <v>8599200</v>
+        <v>8912600</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1233,10 +1233,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>12602800</v>
+        <v>13062100</v>
       </c>
       <c r="E29" s="3">
-        <v>-22500</v>
+        <v>-23300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1865000</v>
+        <v>-1933000</v>
       </c>
       <c r="E32" s="3">
-        <v>-572700</v>
+        <v>-593500</v>
       </c>
       <c r="F32" s="3">
-        <v>-425700</v>
+        <v>-441200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1024900</v>
+        <v>-1062200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1317900</v>
+        <v>-1365900</v>
       </c>
       <c r="I32" s="3">
-        <v>-796200</v>
+        <v>-825200</v>
       </c>
       <c r="J32" s="3">
-        <v>-320500</v>
+        <v>-332200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23484500</v>
+        <v>24340300</v>
       </c>
       <c r="E33" s="3">
-        <v>3702400</v>
+        <v>3837400</v>
       </c>
       <c r="F33" s="3">
-        <v>2426400</v>
+        <v>2514900</v>
       </c>
       <c r="G33" s="3">
-        <v>7399800</v>
+        <v>7669400</v>
       </c>
       <c r="H33" s="3">
-        <v>10491800</v>
+        <v>10874100</v>
       </c>
       <c r="I33" s="3">
-        <v>8703300</v>
+        <v>9020500</v>
       </c>
       <c r="J33" s="3">
-        <v>8599200</v>
+        <v>8912600</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23484500</v>
+        <v>24340300</v>
       </c>
       <c r="E35" s="3">
-        <v>3702400</v>
+        <v>3837400</v>
       </c>
       <c r="F35" s="3">
-        <v>2426400</v>
+        <v>2514900</v>
       </c>
       <c r="G35" s="3">
-        <v>7399800</v>
+        <v>7669400</v>
       </c>
       <c r="H35" s="3">
-        <v>10491800</v>
+        <v>10874100</v>
       </c>
       <c r="I35" s="3">
-        <v>8703300</v>
+        <v>9020500</v>
       </c>
       <c r="J35" s="3">
-        <v>8599200</v>
+        <v>8912600</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23600900</v>
+        <v>24461000</v>
       </c>
       <c r="E41" s="3">
-        <v>23527400</v>
+        <v>24384800</v>
       </c>
       <c r="F41" s="3">
-        <v>19275800</v>
+        <v>19978200</v>
       </c>
       <c r="G41" s="3">
-        <v>16182700</v>
+        <v>16772500</v>
       </c>
       <c r="H41" s="3">
-        <v>12323100</v>
+        <v>12772200</v>
       </c>
       <c r="I41" s="3">
-        <v>11209400</v>
+        <v>11617900</v>
       </c>
       <c r="J41" s="3">
-        <v>10142700</v>
+        <v>10512300</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1507,25 +1507,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6884300</v>
+        <v>7135200</v>
       </c>
       <c r="E42" s="3">
-        <v>5515400</v>
+        <v>5716400</v>
       </c>
       <c r="F42" s="3">
-        <v>8056200</v>
+        <v>8349700</v>
       </c>
       <c r="G42" s="3">
-        <v>9132100</v>
+        <v>9464900</v>
       </c>
       <c r="H42" s="3">
-        <v>12993800</v>
+        <v>13467300</v>
       </c>
       <c r="I42" s="3">
-        <v>9848700</v>
+        <v>10207600</v>
       </c>
       <c r="J42" s="3">
-        <v>7273200</v>
+        <v>7538300</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48300200</v>
+        <v>50060300</v>
       </c>
       <c r="E43" s="3">
-        <v>59902600</v>
+        <v>62085600</v>
       </c>
       <c r="F43" s="3">
-        <v>71051800</v>
+        <v>73641000</v>
       </c>
       <c r="G43" s="3">
-        <v>66089700</v>
+        <v>68498100</v>
       </c>
       <c r="H43" s="3">
-        <v>70816000</v>
+        <v>73396600</v>
       </c>
       <c r="I43" s="3">
-        <v>55187500</v>
+        <v>57198700</v>
       </c>
       <c r="J43" s="3">
-        <v>50477500</v>
+        <v>52317000</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21912500</v>
+        <v>22711000</v>
       </c>
       <c r="E44" s="3">
-        <v>26994000</v>
+        <v>27977800</v>
       </c>
       <c r="F44" s="3">
-        <v>30375900</v>
+        <v>31482900</v>
       </c>
       <c r="G44" s="3">
-        <v>30102400</v>
+        <v>31199400</v>
       </c>
       <c r="H44" s="3">
-        <v>26220300</v>
+        <v>27175800</v>
       </c>
       <c r="I44" s="3">
-        <v>25912000</v>
+        <v>26856300</v>
       </c>
       <c r="J44" s="3">
-        <v>24254200</v>
+        <v>25138100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4372100</v>
+        <v>4531400</v>
       </c>
       <c r="E45" s="3">
-        <v>1722100</v>
+        <v>1784800</v>
       </c>
       <c r="F45" s="3">
-        <v>1698600</v>
+        <v>1760500</v>
       </c>
       <c r="G45" s="3">
-        <v>2635700</v>
+        <v>2731800</v>
       </c>
       <c r="H45" s="3">
-        <v>7806100</v>
+        <v>8090500</v>
       </c>
       <c r="I45" s="3">
-        <v>2017100</v>
+        <v>2090600</v>
       </c>
       <c r="J45" s="3">
-        <v>1609800</v>
+        <v>1668500</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>105070000</v>
+        <v>108899000</v>
       </c>
       <c r="E46" s="3">
-        <v>117662000</v>
+        <v>121949000</v>
       </c>
       <c r="F46" s="3">
-        <v>130458000</v>
+        <v>135212000</v>
       </c>
       <c r="G46" s="3">
-        <v>124143000</v>
+        <v>128667000</v>
       </c>
       <c r="H46" s="3">
-        <v>109119000</v>
+        <v>113096000</v>
       </c>
       <c r="I46" s="3">
-        <v>104175000</v>
+        <v>107971000</v>
       </c>
       <c r="J46" s="3">
-        <v>93757400</v>
+        <v>97174100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65635400</v>
+        <v>68027300</v>
       </c>
       <c r="E47" s="3">
-        <v>64183800</v>
+        <v>66522800</v>
       </c>
       <c r="F47" s="3">
-        <v>64112400</v>
+        <v>66448700</v>
       </c>
       <c r="G47" s="3">
-        <v>61051000</v>
+        <v>63275800</v>
       </c>
       <c r="H47" s="3">
-        <v>59649400</v>
+        <v>61823200</v>
       </c>
       <c r="I47" s="3">
-        <v>51029800</v>
+        <v>52889400</v>
       </c>
       <c r="J47" s="3">
-        <v>48140900</v>
+        <v>49895300</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>73834500</v>
+        <v>76525100</v>
       </c>
       <c r="E48" s="3">
-        <v>84520200</v>
+        <v>87600300</v>
       </c>
       <c r="F48" s="3">
-        <v>90468400</v>
+        <v>93765300</v>
       </c>
       <c r="G48" s="3">
-        <v>82096800</v>
+        <v>85088600</v>
       </c>
       <c r="H48" s="3">
-        <v>153232000</v>
+        <v>158816000</v>
       </c>
       <c r="I48" s="3">
-        <v>74848100</v>
+        <v>77575700</v>
       </c>
       <c r="J48" s="3">
-        <v>64579900</v>
+        <v>66933300</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15317100</v>
+        <v>15875300</v>
       </c>
       <c r="E49" s="3">
-        <v>16740100</v>
+        <v>17350100</v>
       </c>
       <c r="F49" s="3">
-        <v>16310300</v>
+        <v>16904700</v>
       </c>
       <c r="G49" s="3">
-        <v>15108900</v>
+        <v>15659500</v>
       </c>
       <c r="H49" s="3">
-        <v>28041400</v>
+        <v>29063300</v>
       </c>
       <c r="I49" s="3">
-        <v>12349600</v>
+        <v>12799700</v>
       </c>
       <c r="J49" s="3">
-        <v>10278400</v>
+        <v>10653000</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5378600</v>
+        <v>5574600</v>
       </c>
       <c r="E52" s="3">
-        <v>8574700</v>
+        <v>8887200</v>
       </c>
       <c r="F52" s="3">
-        <v>7379400</v>
+        <v>7648300</v>
       </c>
       <c r="G52" s="3">
-        <v>5077500</v>
+        <v>5262500</v>
       </c>
       <c r="H52" s="3">
-        <v>5749100</v>
+        <v>5958700</v>
       </c>
       <c r="I52" s="3">
-        <v>5639900</v>
+        <v>5845500</v>
       </c>
       <c r="J52" s="3">
-        <v>4926400</v>
+        <v>5105900</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>265236000</v>
+        <v>274901000</v>
       </c>
       <c r="E54" s="3">
-        <v>291680000</v>
+        <v>302310000</v>
       </c>
       <c r="F54" s="3">
-        <v>308729000</v>
+        <v>319979000</v>
       </c>
       <c r="G54" s="3">
-        <v>287477000</v>
+        <v>297953000</v>
       </c>
       <c r="H54" s="3">
-        <v>260656000</v>
+        <v>270155000</v>
       </c>
       <c r="I54" s="3">
-        <v>248042000</v>
+        <v>257081000</v>
       </c>
       <c r="J54" s="3">
-        <v>221683000</v>
+        <v>229762000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10876600</v>
+        <v>11273000</v>
       </c>
       <c r="E57" s="3">
-        <v>12635500</v>
+        <v>13095900</v>
       </c>
       <c r="F57" s="3">
-        <v>12971300</v>
+        <v>13444000</v>
       </c>
       <c r="G57" s="3">
-        <v>14480000</v>
+        <v>15007700</v>
       </c>
       <c r="H57" s="3">
-        <v>12710000</v>
+        <v>13173200</v>
       </c>
       <c r="I57" s="3">
-        <v>11807600</v>
+        <v>12237900</v>
       </c>
       <c r="J57" s="3">
-        <v>10767400</v>
+        <v>11159800</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53387800</v>
+        <v>55333400</v>
       </c>
       <c r="E58" s="3">
-        <v>60536500</v>
+        <v>62742600</v>
       </c>
       <c r="F58" s="3">
-        <v>63903100</v>
+        <v>66231900</v>
       </c>
       <c r="G58" s="3">
-        <v>57409800</v>
+        <v>59501900</v>
       </c>
       <c r="H58" s="3">
-        <v>49759900</v>
+        <v>51573300</v>
       </c>
       <c r="I58" s="3">
-        <v>48271600</v>
+        <v>50030700</v>
       </c>
       <c r="J58" s="3">
-        <v>42170300</v>
+        <v>43707000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25234200</v>
+        <v>26153800</v>
       </c>
       <c r="E59" s="3">
-        <v>28713100</v>
+        <v>29759400</v>
       </c>
       <c r="F59" s="3">
-        <v>31128300</v>
+        <v>32262700</v>
       </c>
       <c r="G59" s="3">
-        <v>28099600</v>
+        <v>29123600</v>
       </c>
       <c r="H59" s="3">
-        <v>36515000</v>
+        <v>37845700</v>
       </c>
       <c r="I59" s="3">
-        <v>26134500</v>
+        <v>27086900</v>
       </c>
       <c r="J59" s="3">
-        <v>25746600</v>
+        <v>26684900</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>89498600</v>
+        <v>92760200</v>
       </c>
       <c r="E60" s="3">
-        <v>101885000</v>
+        <v>105598000</v>
       </c>
       <c r="F60" s="3">
-        <v>108003000</v>
+        <v>111939000</v>
       </c>
       <c r="G60" s="3">
-        <v>99989400</v>
+        <v>103633000</v>
       </c>
       <c r="H60" s="3">
-        <v>89446600</v>
+        <v>92706200</v>
       </c>
       <c r="I60" s="3">
-        <v>86213700</v>
+        <v>89355500</v>
       </c>
       <c r="J60" s="3">
-        <v>78684300</v>
+        <v>81551700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75072700</v>
+        <v>77808500</v>
       </c>
       <c r="E61" s="3">
-        <v>88339000</v>
+        <v>91558300</v>
       </c>
       <c r="F61" s="3">
-        <v>101242000</v>
+        <v>104931000</v>
       </c>
       <c r="G61" s="3">
-        <v>90506200</v>
+        <v>93804400</v>
       </c>
       <c r="H61" s="3">
-        <v>80008300</v>
+        <v>82923900</v>
       </c>
       <c r="I61" s="3">
-        <v>71862300</v>
+        <v>74481100</v>
       </c>
       <c r="J61" s="3">
-        <v>61075500</v>
+        <v>63301200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25975300</v>
+        <v>26921900</v>
       </c>
       <c r="E62" s="3">
-        <v>37913500</v>
+        <v>39295200</v>
       </c>
       <c r="F62" s="3">
-        <v>35336000</v>
+        <v>36623700</v>
       </c>
       <c r="G62" s="3">
-        <v>29554200</v>
+        <v>30631200</v>
       </c>
       <c r="H62" s="3">
-        <v>27106300</v>
+        <v>28094100</v>
       </c>
       <c r="I62" s="3">
-        <v>29603200</v>
+        <v>30682000</v>
       </c>
       <c r="J62" s="3">
-        <v>26163100</v>
+        <v>27116500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>191788000</v>
+        <v>198777000</v>
       </c>
       <c r="E66" s="3">
-        <v>229727000</v>
+        <v>238099000</v>
       </c>
       <c r="F66" s="3">
-        <v>246109000</v>
+        <v>255078000</v>
       </c>
       <c r="G66" s="3">
-        <v>221465000</v>
+        <v>229535000</v>
       </c>
       <c r="H66" s="3">
-        <v>195459000</v>
+        <v>202582000</v>
       </c>
       <c r="I66" s="3">
-        <v>188887000</v>
+        <v>195770000</v>
       </c>
       <c r="J66" s="3">
-        <v>167008000</v>
+        <v>173094000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57358800</v>
+        <v>59449000</v>
       </c>
       <c r="E72" s="3">
-        <v>48090900</v>
+        <v>49843400</v>
       </c>
       <c r="F72" s="3">
-        <v>47292600</v>
+        <v>49016100</v>
       </c>
       <c r="G72" s="3">
-        <v>50519400</v>
+        <v>52360400</v>
       </c>
       <c r="H72" s="3">
-        <v>48542100</v>
+        <v>50311100</v>
       </c>
       <c r="I72" s="3">
-        <v>41642500</v>
+        <v>43160100</v>
       </c>
       <c r="J72" s="3">
-        <v>37760400</v>
+        <v>39136500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73447600</v>
+        <v>76124200</v>
       </c>
       <c r="E76" s="3">
-        <v>61953400</v>
+        <v>64211100</v>
       </c>
       <c r="F76" s="3">
-        <v>62620000</v>
+        <v>64902000</v>
       </c>
       <c r="G76" s="3">
-        <v>66012100</v>
+        <v>68417700</v>
       </c>
       <c r="H76" s="3">
-        <v>65197500</v>
+        <v>67573400</v>
       </c>
       <c r="I76" s="3">
-        <v>59155400</v>
+        <v>61311100</v>
       </c>
       <c r="J76" s="3">
-        <v>54675100</v>
+        <v>56667500</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23484500</v>
+        <v>24340300</v>
       </c>
       <c r="E81" s="3">
-        <v>3702400</v>
+        <v>3837400</v>
       </c>
       <c r="F81" s="3">
-        <v>2426400</v>
+        <v>2514900</v>
       </c>
       <c r="G81" s="3">
-        <v>7399800</v>
+        <v>7669400</v>
       </c>
       <c r="H81" s="3">
-        <v>10491800</v>
+        <v>10874100</v>
       </c>
       <c r="I81" s="3">
-        <v>8703300</v>
+        <v>9020500</v>
       </c>
       <c r="J81" s="3">
-        <v>8599200</v>
+        <v>8912600</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7125200</v>
+        <v>9476500</v>
       </c>
       <c r="E83" s="3">
-        <v>9143300</v>
+        <v>8200600</v>
       </c>
       <c r="F83" s="3">
-        <v>7912200</v>
+        <v>6670700</v>
       </c>
       <c r="G83" s="3">
-        <v>6436100</v>
+        <v>6005200</v>
       </c>
       <c r="H83" s="3">
-        <v>5794100</v>
+        <v>5795700</v>
       </c>
       <c r="I83" s="3">
-        <v>5591900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>5496000</v>
+        <v>5696300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24996300</v>
+        <v>23627300</v>
       </c>
       <c r="E89" s="3">
-        <v>22796500</v>
+        <v>8345500</v>
       </c>
       <c r="F89" s="3">
-        <v>8052100</v>
+        <v>362900</v>
       </c>
       <c r="G89" s="3">
-        <v>350100</v>
+        <v>-1747800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1686400</v>
+        <v>3926200</v>
       </c>
       <c r="I89" s="3">
-        <v>3788200</v>
+        <v>234900</v>
       </c>
       <c r="J89" s="3">
-        <v>226600</v>
+        <v>-1347900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4674200</v>
+        <v>-6074000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5860400</v>
+        <v>-7616500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7348700</v>
+        <v>-7971000</v>
       </c>
       <c r="G91" s="3">
-        <v>-7690700</v>
+        <v>-7135200</v>
       </c>
       <c r="H91" s="3">
-        <v>-6884300</v>
+        <v>-6230600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6011500</v>
+        <v>-5369400</v>
       </c>
       <c r="J91" s="3">
-        <v>-5180600</v>
+        <v>-5125000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6355500</v>
+        <v>-6793400</v>
       </c>
       <c r="E94" s="3">
-        <v>-6554600</v>
+        <v>-11222200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10827600</v>
+        <v>-10496400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10127400</v>
+        <v>-10070000</v>
       </c>
       <c r="H94" s="3">
-        <v>-9716000</v>
+        <v>-15516600</v>
       </c>
       <c r="I94" s="3">
-        <v>-14971100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-9924200</v>
+        <v>-10285900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1474000</v>
+        <v>-1018900</v>
       </c>
       <c r="E96" s="3">
-        <v>-983000</v>
+        <v>-3678700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3549300</v>
+        <v>-4131500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3986200</v>
+        <v>-3678700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3549300</v>
+        <v>-3678700</v>
       </c>
       <c r="I96" s="3">
-        <v>-3549300</v>
+        <v>-2773000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2675500</v>
+        <v>-2546600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19455400</v>
+        <v>-11370300</v>
       </c>
       <c r="E100" s="3">
-        <v>-10970500</v>
+        <v>5954400</v>
       </c>
       <c r="F100" s="3">
-        <v>5745100</v>
+        <v>13993100</v>
       </c>
       <c r="G100" s="3">
-        <v>13501100</v>
+        <v>13890500</v>
       </c>
       <c r="H100" s="3">
-        <v>13402100</v>
+        <v>12705500</v>
       </c>
       <c r="I100" s="3">
-        <v>12258800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>9831300</v>
+        <v>10189600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,25 +2967,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>888100</v>
+        <v>-1056900</v>
       </c>
       <c r="E101" s="3">
-        <v>-1019800</v>
+        <v>128000</v>
       </c>
       <c r="F101" s="3">
-        <v>123500</v>
+        <v>140700</v>
       </c>
       <c r="G101" s="3">
-        <v>135800</v>
+        <v>-918300</v>
       </c>
       <c r="H101" s="3">
-        <v>-886100</v>
+        <v>-9500</v>
       </c>
       <c r="I101" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>140900</v>
+        <v>146000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>73500</v>
+        <v>4406600</v>
       </c>
       <c r="E102" s="3">
-        <v>4251600</v>
+        <v>3205700</v>
       </c>
       <c r="F102" s="3">
-        <v>3093000</v>
+        <v>4000300</v>
       </c>
       <c r="G102" s="3">
-        <v>3859600</v>
+        <v>1154300</v>
       </c>
       <c r="H102" s="3">
-        <v>1113700</v>
+        <v>1105600</v>
       </c>
       <c r="I102" s="3">
-        <v>1066700</v>
+        <v>284600</v>
       </c>
       <c r="J102" s="3">
-        <v>274600</v>
+        <v>-1466400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MBGAF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>141658800</v>
+        <v>161553300</v>
       </c>
       <c r="E8" s="3">
-        <v>128841100</v>
+        <v>144189400</v>
       </c>
       <c r="F8" s="3">
-        <v>182764200</v>
+        <v>131142700</v>
       </c>
       <c r="G8" s="3">
-        <v>177069000</v>
+        <v>186029100</v>
       </c>
       <c r="H8" s="3">
-        <v>173674900</v>
+        <v>180232100</v>
       </c>
       <c r="I8" s="3">
-        <v>162150100</v>
+        <v>176777400</v>
       </c>
       <c r="J8" s="3">
+        <v>165046800</v>
+      </c>
+      <c r="K8" s="3">
         <v>158136100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>108507400</v>
+        <v>124673800</v>
       </c>
       <c r="E9" s="3">
-        <v>116351400</v>
+        <v>110445800</v>
       </c>
       <c r="F9" s="3">
-        <v>144775700</v>
+        <v>118429900</v>
       </c>
       <c r="G9" s="3">
-        <v>141943400</v>
+        <v>147361900</v>
       </c>
       <c r="H9" s="3">
-        <v>137144300</v>
+        <v>144479100</v>
       </c>
       <c r="I9" s="3">
-        <v>128198900</v>
+        <v>139594200</v>
       </c>
       <c r="J9" s="3">
+        <v>130489000</v>
+      </c>
+      <c r="K9" s="3">
         <v>124813300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33151400</v>
+        <v>36879500</v>
       </c>
       <c r="E10" s="3">
-        <v>12489700</v>
+        <v>33743600</v>
       </c>
       <c r="F10" s="3">
-        <v>37988500</v>
+        <v>12712800</v>
       </c>
       <c r="G10" s="3">
-        <v>35125600</v>
+        <v>38667200</v>
       </c>
       <c r="H10" s="3">
-        <v>36530600</v>
+        <v>35753100</v>
       </c>
       <c r="I10" s="3">
-        <v>33951200</v>
+        <v>37183200</v>
       </c>
       <c r="J10" s="3">
+        <v>34557700</v>
+      </c>
+      <c r="K10" s="3">
         <v>33322800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5644400</v>
+        <v>5998300</v>
       </c>
       <c r="E12" s="3">
-        <v>14019600</v>
+        <v>5745300</v>
       </c>
       <c r="F12" s="3">
-        <v>6934100</v>
+        <v>14270000</v>
       </c>
       <c r="G12" s="3">
-        <v>6892900</v>
+        <v>7058000</v>
       </c>
       <c r="H12" s="3">
-        <v>6231600</v>
+        <v>7016000</v>
       </c>
       <c r="I12" s="3">
-        <v>5521700</v>
+        <v>6342900</v>
       </c>
       <c r="J12" s="3">
+        <v>5620300</v>
+      </c>
+      <c r="K12" s="3">
         <v>4995900</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1341500</v>
+        <v>-119500</v>
       </c>
       <c r="E14" s="3">
-        <v>1454800</v>
+        <v>1365500</v>
       </c>
       <c r="F14" s="3">
-        <v>6372300</v>
+        <v>1480700</v>
       </c>
       <c r="G14" s="3">
-        <v>140700</v>
+        <v>6486200</v>
       </c>
       <c r="H14" s="3">
-        <v>26500</v>
+        <v>143200</v>
       </c>
       <c r="I14" s="3">
-        <v>292000</v>
+        <v>26900</v>
       </c>
       <c r="J14" s="3">
+        <v>297200</v>
+      </c>
+      <c r="K14" s="3">
         <v>320600</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>170300</v>
+        <v>155100</v>
       </c>
       <c r="E15" s="3">
-        <v>207400</v>
+        <v>173400</v>
       </c>
       <c r="F15" s="3">
-        <v>147100</v>
+        <v>211100</v>
       </c>
       <c r="G15" s="3">
-        <v>221100</v>
+        <v>149700</v>
       </c>
       <c r="H15" s="3">
-        <v>193600</v>
+        <v>225100</v>
       </c>
       <c r="I15" s="3">
-        <v>155500</v>
+        <v>197100</v>
       </c>
       <c r="J15" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K15" s="3">
         <v>160800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>126467000</v>
+        <v>141753400</v>
       </c>
       <c r="E17" s="3">
-        <v>122845400</v>
+        <v>128726200</v>
       </c>
       <c r="F17" s="3">
-        <v>178430600</v>
+        <v>125039900</v>
       </c>
       <c r="G17" s="3">
-        <v>166223400</v>
+        <v>181618100</v>
       </c>
       <c r="H17" s="3">
-        <v>159871200</v>
+        <v>169192800</v>
       </c>
       <c r="I17" s="3">
-        <v>149334600</v>
+        <v>162727100</v>
       </c>
       <c r="J17" s="3">
+        <v>152002300</v>
+      </c>
+      <c r="K17" s="3">
         <v>144658200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>15191800</v>
+        <v>19799900</v>
       </c>
       <c r="E18" s="3">
-        <v>5995700</v>
+        <v>15463200</v>
       </c>
       <c r="F18" s="3">
-        <v>4333600</v>
+        <v>6102800</v>
       </c>
       <c r="G18" s="3">
-        <v>10845600</v>
+        <v>4411000</v>
       </c>
       <c r="H18" s="3">
-        <v>13803700</v>
+        <v>11039300</v>
       </c>
       <c r="I18" s="3">
-        <v>12815600</v>
+        <v>14050300</v>
       </c>
       <c r="J18" s="3">
+        <v>13044500</v>
+      </c>
+      <c r="K18" s="3">
         <v>13477900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1933000</v>
+        <v>2460700</v>
       </c>
       <c r="E20" s="3">
-        <v>593500</v>
+        <v>1967500</v>
       </c>
       <c r="F20" s="3">
-        <v>441200</v>
+        <v>604100</v>
       </c>
       <c r="G20" s="3">
-        <v>1062200</v>
+        <v>449100</v>
       </c>
       <c r="H20" s="3">
-        <v>1365900</v>
+        <v>1081200</v>
       </c>
       <c r="I20" s="3">
-        <v>825200</v>
+        <v>1390300</v>
       </c>
       <c r="J20" s="3">
+        <v>840000</v>
+      </c>
+      <c r="K20" s="3">
         <v>332200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>26569000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>14761900</v>
+        <v>29328800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F21" s="3">
-        <v>11422700</v>
+        <v>16415500</v>
       </c>
       <c r="G21" s="3">
-        <v>17892600</v>
+        <v>13261400</v>
       </c>
       <c r="H21" s="3">
-        <v>20945600</v>
+        <v>18954600</v>
       </c>
       <c r="I21" s="3">
-        <v>19317700</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>21592900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>19822100</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>396800</v>
+        <v>395200</v>
       </c>
       <c r="E22" s="3">
-        <v>286700</v>
+        <v>403800</v>
       </c>
       <c r="F22" s="3">
-        <v>722600</v>
+        <v>291800</v>
       </c>
       <c r="G22" s="3">
-        <v>698300</v>
+        <v>735500</v>
       </c>
       <c r="H22" s="3">
-        <v>392500</v>
+        <v>710800</v>
       </c>
       <c r="I22" s="3">
-        <v>337500</v>
+        <v>399500</v>
       </c>
       <c r="J22" s="3">
+        <v>343500</v>
+      </c>
+      <c r="K22" s="3">
         <v>326900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>16728000</v>
+        <v>21865400</v>
       </c>
       <c r="E23" s="3">
-        <v>6302500</v>
+        <v>17026900</v>
       </c>
       <c r="F23" s="3">
-        <v>4052100</v>
+        <v>6415100</v>
       </c>
       <c r="G23" s="3">
-        <v>11209500</v>
+        <v>4124500</v>
       </c>
       <c r="H23" s="3">
-        <v>14777100</v>
+        <v>11409800</v>
       </c>
       <c r="I23" s="3">
-        <v>13303300</v>
+        <v>15041100</v>
       </c>
       <c r="J23" s="3">
+        <v>13540900</v>
+      </c>
+      <c r="K23" s="3">
         <v>13483200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>5037100</v>
+        <v>5917600</v>
       </c>
       <c r="E24" s="3">
-        <v>2037700</v>
+        <v>5127100</v>
       </c>
       <c r="F24" s="3">
-        <v>1186000</v>
+        <v>2074100</v>
       </c>
       <c r="G24" s="3">
-        <v>3187800</v>
+        <v>1207200</v>
       </c>
       <c r="H24" s="3">
-        <v>3544300</v>
+        <v>3244700</v>
       </c>
       <c r="I24" s="3">
-        <v>4009800</v>
+        <v>3607600</v>
       </c>
       <c r="J24" s="3">
+        <v>4081500</v>
+      </c>
+      <c r="K24" s="3">
         <v>4266900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11690900</v>
+        <v>15947800</v>
       </c>
       <c r="E26" s="3">
-        <v>4264800</v>
+        <v>11899700</v>
       </c>
       <c r="F26" s="3">
-        <v>2866100</v>
+        <v>4341000</v>
       </c>
       <c r="G26" s="3">
-        <v>8021800</v>
+        <v>2917300</v>
       </c>
       <c r="H26" s="3">
-        <v>11232800</v>
+        <v>8165100</v>
       </c>
       <c r="I26" s="3">
-        <v>9293500</v>
+        <v>11433400</v>
       </c>
       <c r="J26" s="3">
+        <v>9459500</v>
+      </c>
+      <c r="K26" s="3">
         <v>9216200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>11278300</v>
+        <v>15616100</v>
       </c>
       <c r="E27" s="3">
-        <v>3860600</v>
+        <v>11479800</v>
       </c>
       <c r="F27" s="3">
-        <v>2514900</v>
+        <v>3929600</v>
       </c>
       <c r="G27" s="3">
-        <v>7669400</v>
+        <v>2559800</v>
       </c>
       <c r="H27" s="3">
-        <v>10874100</v>
+        <v>7806400</v>
       </c>
       <c r="I27" s="3">
-        <v>9020500</v>
+        <v>11068400</v>
       </c>
       <c r="J27" s="3">
+        <v>9181600</v>
+      </c>
+      <c r="K27" s="3">
         <v>8912600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,20 +1283,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>13062100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>13295400</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-23700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1933000</v>
+        <v>-2460700</v>
       </c>
       <c r="E32" s="3">
-        <v>-593500</v>
+        <v>-1967500</v>
       </c>
       <c r="F32" s="3">
-        <v>-441200</v>
+        <v>-604100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1062200</v>
+        <v>-449100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1365900</v>
+        <v>-1081200</v>
       </c>
       <c r="I32" s="3">
-        <v>-825200</v>
+        <v>-1390300</v>
       </c>
       <c r="J32" s="3">
+        <v>-840000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-332200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>24340300</v>
+        <v>15616100</v>
       </c>
       <c r="E33" s="3">
-        <v>3837400</v>
+        <v>24775200</v>
       </c>
       <c r="F33" s="3">
-        <v>2514900</v>
+        <v>3905900</v>
       </c>
       <c r="G33" s="3">
-        <v>7669400</v>
+        <v>2559800</v>
       </c>
       <c r="H33" s="3">
-        <v>10874100</v>
+        <v>7806400</v>
       </c>
       <c r="I33" s="3">
-        <v>9020500</v>
+        <v>11068400</v>
       </c>
       <c r="J33" s="3">
+        <v>9181600</v>
+      </c>
+      <c r="K33" s="3">
         <v>8912600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24340300</v>
+        <v>15616100</v>
       </c>
       <c r="E35" s="3">
-        <v>3837400</v>
+        <v>24775200</v>
       </c>
       <c r="F35" s="3">
-        <v>2514900</v>
+        <v>3905900</v>
       </c>
       <c r="G35" s="3">
-        <v>7669400</v>
+        <v>2559800</v>
       </c>
       <c r="H35" s="3">
-        <v>10874100</v>
+        <v>7806400</v>
       </c>
       <c r="I35" s="3">
-        <v>9020500</v>
+        <v>11068400</v>
       </c>
       <c r="J35" s="3">
+        <v>9181600</v>
+      </c>
+      <c r="K35" s="3">
         <v>8912600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24461000</v>
+        <v>19038500</v>
       </c>
       <c r="E41" s="3">
-        <v>24384800</v>
+        <v>24897900</v>
       </c>
       <c r="F41" s="3">
-        <v>19978200</v>
+        <v>24820400</v>
       </c>
       <c r="G41" s="3">
-        <v>16772500</v>
+        <v>20335100</v>
       </c>
       <c r="H41" s="3">
-        <v>12772200</v>
+        <v>17072100</v>
       </c>
       <c r="I41" s="3">
-        <v>11617900</v>
+        <v>13000300</v>
       </c>
       <c r="J41" s="3">
+        <v>11825400</v>
+      </c>
+      <c r="K41" s="3">
         <v>10512300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7135200</v>
+        <v>7192600</v>
       </c>
       <c r="E42" s="3">
-        <v>5716400</v>
+        <v>7262600</v>
       </c>
       <c r="F42" s="3">
-        <v>8349700</v>
+        <v>5818500</v>
       </c>
       <c r="G42" s="3">
-        <v>9464900</v>
+        <v>8498900</v>
       </c>
       <c r="H42" s="3">
-        <v>13467300</v>
+        <v>9633900</v>
       </c>
       <c r="I42" s="3">
-        <v>10207600</v>
+        <v>13707900</v>
       </c>
       <c r="J42" s="3">
+        <v>10389900</v>
+      </c>
+      <c r="K42" s="3">
         <v>7538300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50060300</v>
+        <v>55153400</v>
       </c>
       <c r="E43" s="3">
-        <v>62085600</v>
+        <v>50954600</v>
       </c>
       <c r="F43" s="3">
-        <v>73641000</v>
+        <v>63194600</v>
       </c>
       <c r="G43" s="3">
-        <v>68498100</v>
+        <v>74956500</v>
       </c>
       <c r="H43" s="3">
-        <v>73396600</v>
+        <v>69721700</v>
       </c>
       <c r="I43" s="3">
-        <v>57198700</v>
+        <v>74707800</v>
       </c>
       <c r="J43" s="3">
+        <v>58220400</v>
+      </c>
+      <c r="K43" s="3">
         <v>52317000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22711000</v>
+        <v>27591300</v>
       </c>
       <c r="E44" s="3">
-        <v>27977800</v>
+        <v>23116700</v>
       </c>
       <c r="F44" s="3">
-        <v>31482900</v>
+        <v>28477500</v>
       </c>
       <c r="G44" s="3">
-        <v>31199400</v>
+        <v>32045300</v>
       </c>
       <c r="H44" s="3">
-        <v>27175800</v>
+        <v>31756700</v>
       </c>
       <c r="I44" s="3">
-        <v>26856300</v>
+        <v>27661300</v>
       </c>
       <c r="J44" s="3">
+        <v>27336000</v>
+      </c>
+      <c r="K44" s="3">
         <v>25138100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4531400</v>
+        <v>1809200</v>
       </c>
       <c r="E45" s="3">
-        <v>1784800</v>
+        <v>4612400</v>
       </c>
       <c r="F45" s="3">
-        <v>1760500</v>
+        <v>1816700</v>
       </c>
       <c r="G45" s="3">
-        <v>2731800</v>
+        <v>1792000</v>
       </c>
       <c r="H45" s="3">
-        <v>8090500</v>
+        <v>2780600</v>
       </c>
       <c r="I45" s="3">
-        <v>2090600</v>
+        <v>8235100</v>
       </c>
       <c r="J45" s="3">
+        <v>2128000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1668500</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>108899000</v>
+        <v>110785000</v>
       </c>
       <c r="E46" s="3">
-        <v>121949000</v>
+        <v>110844000</v>
       </c>
       <c r="F46" s="3">
-        <v>135212000</v>
+        <v>124128000</v>
       </c>
       <c r="G46" s="3">
-        <v>128667000</v>
+        <v>137628000</v>
       </c>
       <c r="H46" s="3">
-        <v>113096000</v>
+        <v>130965000</v>
       </c>
       <c r="I46" s="3">
-        <v>107971000</v>
+        <v>115116000</v>
       </c>
       <c r="J46" s="3">
+        <v>109900000</v>
+      </c>
+      <c r="K46" s="3">
         <v>97174100</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68027300</v>
+        <v>70714600</v>
       </c>
       <c r="E47" s="3">
-        <v>66522800</v>
+        <v>69242500</v>
       </c>
       <c r="F47" s="3">
-        <v>66448700</v>
+        <v>67711200</v>
       </c>
       <c r="G47" s="3">
-        <v>63275800</v>
+        <v>67635800</v>
       </c>
       <c r="H47" s="3">
-        <v>61823200</v>
+        <v>64406200</v>
       </c>
       <c r="I47" s="3">
-        <v>52889400</v>
+        <v>62927600</v>
       </c>
       <c r="J47" s="3">
+        <v>53834200</v>
+      </c>
+      <c r="K47" s="3">
         <v>49895300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76525100</v>
+        <v>74092900</v>
       </c>
       <c r="E48" s="3">
-        <v>87600300</v>
+        <v>77892200</v>
       </c>
       <c r="F48" s="3">
-        <v>93765300</v>
+        <v>89165200</v>
       </c>
       <c r="G48" s="3">
-        <v>85088600</v>
+        <v>95440300</v>
       </c>
       <c r="H48" s="3">
-        <v>158816000</v>
+        <v>86608600</v>
       </c>
       <c r="I48" s="3">
-        <v>77575700</v>
+        <v>161654000</v>
       </c>
       <c r="J48" s="3">
+        <v>78961500</v>
+      </c>
+      <c r="K48" s="3">
         <v>66933300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15875300</v>
+        <v>17089300</v>
       </c>
       <c r="E49" s="3">
-        <v>17350100</v>
+        <v>16158900</v>
       </c>
       <c r="F49" s="3">
-        <v>16904700</v>
+        <v>17660100</v>
       </c>
       <c r="G49" s="3">
-        <v>15659500</v>
+        <v>17206700</v>
       </c>
       <c r="H49" s="3">
-        <v>29063300</v>
+        <v>15939200</v>
       </c>
       <c r="I49" s="3">
-        <v>12799700</v>
+        <v>29582400</v>
       </c>
       <c r="J49" s="3">
+        <v>13028300</v>
+      </c>
+      <c r="K49" s="3">
         <v>10653000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5574600</v>
+        <v>7328300</v>
       </c>
       <c r="E52" s="3">
-        <v>8887200</v>
+        <v>5674200</v>
       </c>
       <c r="F52" s="3">
-        <v>7648300</v>
+        <v>9046000</v>
       </c>
       <c r="G52" s="3">
-        <v>5262500</v>
+        <v>7784900</v>
       </c>
       <c r="H52" s="3">
-        <v>5958700</v>
+        <v>5356500</v>
       </c>
       <c r="I52" s="3">
-        <v>5845500</v>
+        <v>6065100</v>
       </c>
       <c r="J52" s="3">
+        <v>5949900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5105900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>274901000</v>
+        <v>280010000</v>
       </c>
       <c r="E54" s="3">
-        <v>302310000</v>
+        <v>279812000</v>
       </c>
       <c r="F54" s="3">
-        <v>319979000</v>
+        <v>307710000</v>
       </c>
       <c r="G54" s="3">
-        <v>297953000</v>
+        <v>325696000</v>
       </c>
       <c r="H54" s="3">
-        <v>270155000</v>
+        <v>303276000</v>
       </c>
       <c r="I54" s="3">
-        <v>257081000</v>
+        <v>274981000</v>
       </c>
       <c r="J54" s="3">
+        <v>261674000</v>
+      </c>
+      <c r="K54" s="3">
         <v>229762000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11273000</v>
+        <v>13142500</v>
       </c>
       <c r="E57" s="3">
-        <v>13095900</v>
+        <v>11474400</v>
       </c>
       <c r="F57" s="3">
-        <v>13444000</v>
+        <v>13329900</v>
       </c>
       <c r="G57" s="3">
-        <v>15007700</v>
+        <v>13684200</v>
       </c>
       <c r="H57" s="3">
-        <v>13173200</v>
+        <v>15275800</v>
       </c>
       <c r="I57" s="3">
-        <v>12237900</v>
+        <v>13408500</v>
       </c>
       <c r="J57" s="3">
+        <v>12456500</v>
+      </c>
+      <c r="K57" s="3">
         <v>11159800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55333400</v>
+        <v>53614500</v>
       </c>
       <c r="E58" s="3">
-        <v>62742600</v>
+        <v>56321900</v>
       </c>
       <c r="F58" s="3">
-        <v>66231900</v>
+        <v>63863400</v>
       </c>
       <c r="G58" s="3">
-        <v>59501900</v>
+        <v>67415000</v>
       </c>
       <c r="H58" s="3">
-        <v>51573300</v>
+        <v>60564900</v>
       </c>
       <c r="I58" s="3">
-        <v>50030700</v>
+        <v>52494600</v>
       </c>
       <c r="J58" s="3">
+        <v>50924400</v>
+      </c>
+      <c r="K58" s="3">
         <v>43707000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26153800</v>
+        <v>28444200</v>
       </c>
       <c r="E59" s="3">
-        <v>29759400</v>
+        <v>26621000</v>
       </c>
       <c r="F59" s="3">
-        <v>32262700</v>
+        <v>30291000</v>
       </c>
       <c r="G59" s="3">
-        <v>29123600</v>
+        <v>32839000</v>
       </c>
       <c r="H59" s="3">
-        <v>37845700</v>
+        <v>29643800</v>
       </c>
       <c r="I59" s="3">
-        <v>27086900</v>
+        <v>38521800</v>
       </c>
       <c r="J59" s="3">
+        <v>27570800</v>
+      </c>
+      <c r="K59" s="3">
         <v>26684900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92760200</v>
+        <v>95201200</v>
       </c>
       <c r="E60" s="3">
-        <v>105598000</v>
+        <v>94417200</v>
       </c>
       <c r="F60" s="3">
-        <v>111939000</v>
+        <v>107484000</v>
       </c>
       <c r="G60" s="3">
-        <v>103633000</v>
+        <v>113938000</v>
       </c>
       <c r="H60" s="3">
-        <v>92706200</v>
+        <v>105485000</v>
       </c>
       <c r="I60" s="3">
-        <v>89355500</v>
+        <v>94362300</v>
       </c>
       <c r="J60" s="3">
+        <v>90951700</v>
+      </c>
+      <c r="K60" s="3">
         <v>81551700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77808500</v>
+        <v>66822700</v>
       </c>
       <c r="E61" s="3">
-        <v>91558300</v>
+        <v>79198500</v>
       </c>
       <c r="F61" s="3">
-        <v>104931000</v>
+        <v>93193800</v>
       </c>
       <c r="G61" s="3">
-        <v>93804400</v>
+        <v>106806000</v>
       </c>
       <c r="H61" s="3">
-        <v>82923900</v>
+        <v>95480100</v>
       </c>
       <c r="I61" s="3">
-        <v>74481100</v>
+        <v>84405300</v>
       </c>
       <c r="J61" s="3">
+        <v>75811600</v>
+      </c>
+      <c r="K61" s="3">
         <v>63301200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26921900</v>
+        <v>24791300</v>
       </c>
       <c r="E62" s="3">
-        <v>39295200</v>
+        <v>27402800</v>
       </c>
       <c r="F62" s="3">
-        <v>36623700</v>
+        <v>39997100</v>
       </c>
       <c r="G62" s="3">
-        <v>30631200</v>
+        <v>37278000</v>
       </c>
       <c r="H62" s="3">
-        <v>28094100</v>
+        <v>31178400</v>
       </c>
       <c r="I62" s="3">
-        <v>30682000</v>
+        <v>28596000</v>
       </c>
       <c r="J62" s="3">
+        <v>31230100</v>
+      </c>
+      <c r="K62" s="3">
         <v>27116500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>198777000</v>
+        <v>188027000</v>
       </c>
       <c r="E66" s="3">
-        <v>238099000</v>
+        <v>202328000</v>
       </c>
       <c r="F66" s="3">
-        <v>255078000</v>
+        <v>242352000</v>
       </c>
       <c r="G66" s="3">
-        <v>229535000</v>
+        <v>259634000</v>
       </c>
       <c r="H66" s="3">
-        <v>202582000</v>
+        <v>233636000</v>
       </c>
       <c r="I66" s="3">
-        <v>195770000</v>
+        <v>206201000</v>
       </c>
       <c r="J66" s="3">
+        <v>199267000</v>
+      </c>
+      <c r="K66" s="3">
         <v>173094000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59449000</v>
+        <v>72900700</v>
       </c>
       <c r="E72" s="3">
-        <v>49843400</v>
+        <v>60511000</v>
       </c>
       <c r="F72" s="3">
-        <v>49016100</v>
+        <v>50733800</v>
       </c>
       <c r="G72" s="3">
-        <v>52360400</v>
+        <v>49891700</v>
       </c>
       <c r="H72" s="3">
-        <v>50311100</v>
+        <v>53295800</v>
       </c>
       <c r="I72" s="3">
-        <v>43160100</v>
+        <v>51209800</v>
       </c>
       <c r="J72" s="3">
+        <v>43931100</v>
+      </c>
+      <c r="K72" s="3">
         <v>39136500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76124200</v>
+        <v>91983400</v>
       </c>
       <c r="E76" s="3">
-        <v>64211100</v>
+        <v>77484000</v>
       </c>
       <c r="F76" s="3">
-        <v>64902000</v>
+        <v>65358100</v>
       </c>
       <c r="G76" s="3">
-        <v>68417700</v>
+        <v>66061400</v>
       </c>
       <c r="H76" s="3">
-        <v>67573400</v>
+        <v>69639900</v>
       </c>
       <c r="I76" s="3">
-        <v>61311100</v>
+        <v>68780500</v>
       </c>
       <c r="J76" s="3">
+        <v>62406400</v>
+      </c>
+      <c r="K76" s="3">
         <v>56667500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>24340300</v>
+        <v>15616100</v>
       </c>
       <c r="E81" s="3">
-        <v>3837400</v>
+        <v>24775200</v>
       </c>
       <c r="F81" s="3">
-        <v>2514900</v>
+        <v>3905900</v>
       </c>
       <c r="G81" s="3">
-        <v>7669400</v>
+        <v>2559800</v>
       </c>
       <c r="H81" s="3">
-        <v>10874100</v>
+        <v>7806400</v>
       </c>
       <c r="I81" s="3">
-        <v>9020500</v>
+        <v>11068400</v>
       </c>
       <c r="J81" s="3">
+        <v>9181600</v>
+      </c>
+      <c r="K81" s="3">
         <v>8912600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9476500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8200600</v>
+        <v>7022500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F83" s="3">
-        <v>6670700</v>
+        <v>9645800</v>
       </c>
       <c r="G83" s="3">
-        <v>6005200</v>
+        <v>8347100</v>
       </c>
       <c r="H83" s="3">
-        <v>5795700</v>
+        <v>6789900</v>
       </c>
       <c r="I83" s="3">
-        <v>5696300</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>6112500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5899300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>23627300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>8345500</v>
+        <v>18193100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F89" s="3">
-        <v>362900</v>
+        <v>24049300</v>
       </c>
       <c r="G89" s="3">
-        <v>-1747800</v>
+        <v>8494600</v>
       </c>
       <c r="H89" s="3">
-        <v>3926200</v>
+        <v>369400</v>
       </c>
       <c r="I89" s="3">
-        <v>234900</v>
+        <v>-1779000</v>
       </c>
       <c r="J89" s="3">
+        <v>3996400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1347900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6074000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-7616500</v>
+        <v>-3748700</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F91" s="3">
-        <v>-7971000</v>
+        <v>-6182500</v>
       </c>
       <c r="G91" s="3">
-        <v>-7135200</v>
+        <v>-7752600</v>
       </c>
       <c r="H91" s="3">
-        <v>-6230600</v>
+        <v>-8113400</v>
       </c>
       <c r="I91" s="3">
-        <v>-5369400</v>
+        <v>-7262600</v>
       </c>
       <c r="J91" s="3">
+        <v>-6341900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5125000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6793400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-11222200</v>
+        <v>-3718500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F94" s="3">
-        <v>-10496400</v>
+        <v>-6914800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10070000</v>
+        <v>-11422700</v>
       </c>
       <c r="H94" s="3">
-        <v>-15516600</v>
+        <v>-10683900</v>
       </c>
       <c r="I94" s="3">
-        <v>-10285900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-10249900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15793800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1018900</v>
+        <v>-5760300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3678700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4131500</v>
+        <v>-1037100</v>
       </c>
       <c r="G96" s="3">
-        <v>-3678700</v>
+        <v>-3744400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3678700</v>
+        <v>-4205300</v>
       </c>
       <c r="I96" s="3">
-        <v>-2773000</v>
+        <v>-3744400</v>
       </c>
       <c r="J96" s="3">
+        <v>-3744400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2546600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11370300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>5954400</v>
+        <v>-20495600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F100" s="3">
-        <v>13993100</v>
+        <v>-11573400</v>
       </c>
       <c r="G100" s="3">
-        <v>13890500</v>
+        <v>6060800</v>
       </c>
       <c r="H100" s="3">
-        <v>12705500</v>
+        <v>14243100</v>
       </c>
       <c r="I100" s="3">
-        <v>10189600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>14138600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>12932500</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1056900</v>
-      </c>
-      <c r="E101" s="3">
-        <v>128000</v>
+        <v>94800</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F101" s="3">
-        <v>140700</v>
+        <v>-1075800</v>
       </c>
       <c r="G101" s="3">
-        <v>-918300</v>
+        <v>130300</v>
       </c>
       <c r="H101" s="3">
-        <v>-9500</v>
+        <v>143200</v>
       </c>
       <c r="I101" s="3">
-        <v>146000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-934700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4406600</v>
-      </c>
-      <c r="E102" s="3">
-        <v>3205700</v>
+        <v>-5926200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F102" s="3">
-        <v>4000300</v>
+        <v>4485300</v>
       </c>
       <c r="G102" s="3">
-        <v>1154300</v>
+        <v>3263000</v>
       </c>
       <c r="H102" s="3">
-        <v>1105600</v>
+        <v>4071800</v>
       </c>
       <c r="I102" s="3">
-        <v>284600</v>
+        <v>1174900</v>
       </c>
       <c r="J102" s="3">
+        <v>1125400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1466400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>161553300</v>
+        <v>162633400</v>
       </c>
       <c r="E8" s="3">
-        <v>144189400</v>
+        <v>145153400</v>
       </c>
       <c r="F8" s="3">
-        <v>131142700</v>
+        <v>132019500</v>
       </c>
       <c r="G8" s="3">
-        <v>186029100</v>
+        <v>187272900</v>
       </c>
       <c r="H8" s="3">
-        <v>180232100</v>
+        <v>181437100</v>
       </c>
       <c r="I8" s="3">
-        <v>176777400</v>
+        <v>177959400</v>
       </c>
       <c r="J8" s="3">
-        <v>165046800</v>
+        <v>166150300</v>
       </c>
       <c r="K8" s="3">
         <v>158136100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>124673800</v>
+        <v>125507300</v>
       </c>
       <c r="E9" s="3">
-        <v>110445800</v>
+        <v>111184200</v>
       </c>
       <c r="F9" s="3">
-        <v>118429900</v>
+        <v>119221700</v>
       </c>
       <c r="G9" s="3">
-        <v>147361900</v>
+        <v>148347200</v>
       </c>
       <c r="H9" s="3">
-        <v>144479100</v>
+        <v>145445000</v>
       </c>
       <c r="I9" s="3">
-        <v>139594200</v>
+        <v>140527500</v>
       </c>
       <c r="J9" s="3">
-        <v>130489000</v>
+        <v>131361500</v>
       </c>
       <c r="K9" s="3">
         <v>124813300</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36879500</v>
+        <v>37126100</v>
       </c>
       <c r="E10" s="3">
-        <v>33743600</v>
+        <v>33969200</v>
       </c>
       <c r="F10" s="3">
-        <v>12712800</v>
+        <v>12797800</v>
       </c>
       <c r="G10" s="3">
-        <v>38667200</v>
+        <v>38925700</v>
       </c>
       <c r="H10" s="3">
-        <v>35753100</v>
+        <v>35992100</v>
       </c>
       <c r="I10" s="3">
-        <v>37183200</v>
+        <v>37431800</v>
       </c>
       <c r="J10" s="3">
-        <v>34557700</v>
+        <v>34788800</v>
       </c>
       <c r="K10" s="3">
         <v>33322800</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5998300</v>
+        <v>6038400</v>
       </c>
       <c r="E12" s="3">
-        <v>5745300</v>
+        <v>5783700</v>
       </c>
       <c r="F12" s="3">
-        <v>14270000</v>
+        <v>14365400</v>
       </c>
       <c r="G12" s="3">
-        <v>7058000</v>
+        <v>7105200</v>
       </c>
       <c r="H12" s="3">
-        <v>7016000</v>
+        <v>7062900</v>
       </c>
       <c r="I12" s="3">
-        <v>6342900</v>
+        <v>6385300</v>
       </c>
       <c r="J12" s="3">
-        <v>5620300</v>
+        <v>5657900</v>
       </c>
       <c r="K12" s="3">
         <v>4995900</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-119500</v>
+        <v>-120300</v>
       </c>
       <c r="E14" s="3">
-        <v>1365500</v>
+        <v>1374600</v>
       </c>
       <c r="F14" s="3">
-        <v>1480700</v>
+        <v>1490600</v>
       </c>
       <c r="G14" s="3">
-        <v>6486200</v>
+        <v>6529500</v>
       </c>
       <c r="H14" s="3">
-        <v>143200</v>
+        <v>144200</v>
       </c>
       <c r="I14" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="J14" s="3">
-        <v>297200</v>
+        <v>299200</v>
       </c>
       <c r="K14" s="3">
         <v>320600</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>155100</v>
+        <v>156100</v>
       </c>
       <c r="E15" s="3">
-        <v>173400</v>
+        <v>174500</v>
       </c>
       <c r="F15" s="3">
-        <v>211100</v>
+        <v>212500</v>
       </c>
       <c r="G15" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="H15" s="3">
-        <v>225100</v>
+        <v>226600</v>
       </c>
       <c r="I15" s="3">
-        <v>197100</v>
+        <v>198400</v>
       </c>
       <c r="J15" s="3">
-        <v>158300</v>
+        <v>159400</v>
       </c>
       <c r="K15" s="3">
         <v>160800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>141753400</v>
+        <v>142701200</v>
       </c>
       <c r="E17" s="3">
-        <v>128726200</v>
+        <v>129586800</v>
       </c>
       <c r="F17" s="3">
-        <v>125039900</v>
+        <v>125875900</v>
       </c>
       <c r="G17" s="3">
-        <v>181618100</v>
+        <v>182832400</v>
       </c>
       <c r="H17" s="3">
-        <v>169192800</v>
+        <v>170324000</v>
       </c>
       <c r="I17" s="3">
-        <v>162727100</v>
+        <v>163815100</v>
       </c>
       <c r="J17" s="3">
-        <v>152002300</v>
+        <v>153018500</v>
       </c>
       <c r="K17" s="3">
         <v>144658200</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>19799900</v>
+        <v>19932300</v>
       </c>
       <c r="E18" s="3">
-        <v>15463200</v>
+        <v>15566600</v>
       </c>
       <c r="F18" s="3">
-        <v>6102800</v>
+        <v>6143600</v>
       </c>
       <c r="G18" s="3">
-        <v>4411000</v>
+        <v>4440500</v>
       </c>
       <c r="H18" s="3">
-        <v>11039300</v>
+        <v>11113100</v>
       </c>
       <c r="I18" s="3">
-        <v>14050300</v>
+        <v>14144300</v>
       </c>
       <c r="J18" s="3">
-        <v>13044500</v>
+        <v>13131700</v>
       </c>
       <c r="K18" s="3">
         <v>13477900</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2460700</v>
+        <v>2477200</v>
       </c>
       <c r="E20" s="3">
-        <v>1967500</v>
+        <v>1980700</v>
       </c>
       <c r="F20" s="3">
-        <v>604100</v>
+        <v>608200</v>
       </c>
       <c r="G20" s="3">
-        <v>449100</v>
+        <v>452100</v>
       </c>
       <c r="H20" s="3">
-        <v>1081200</v>
+        <v>1088400</v>
       </c>
       <c r="I20" s="3">
-        <v>1390300</v>
+        <v>1399600</v>
       </c>
       <c r="J20" s="3">
-        <v>840000</v>
+        <v>845600</v>
       </c>
       <c r="K20" s="3">
         <v>332200</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>29328800</v>
+        <v>29478800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="3">
-        <v>16415500</v>
+        <v>16462100</v>
       </c>
       <c r="G21" s="3">
-        <v>13261400</v>
+        <v>13295400</v>
       </c>
       <c r="H21" s="3">
-        <v>18954600</v>
+        <v>19036800</v>
       </c>
       <c r="I21" s="3">
-        <v>21592900</v>
+        <v>21697200</v>
       </c>
       <c r="J21" s="3">
-        <v>19822100</v>
+        <v>19916000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1083,25 +1083,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>395200</v>
+        <v>397900</v>
       </c>
       <c r="E22" s="3">
-        <v>403800</v>
+        <v>406500</v>
       </c>
       <c r="F22" s="3">
-        <v>291800</v>
+        <v>293800</v>
       </c>
       <c r="G22" s="3">
-        <v>735500</v>
+        <v>740400</v>
       </c>
       <c r="H22" s="3">
-        <v>710800</v>
+        <v>715500</v>
       </c>
       <c r="I22" s="3">
-        <v>399500</v>
+        <v>402200</v>
       </c>
       <c r="J22" s="3">
-        <v>343500</v>
+        <v>345800</v>
       </c>
       <c r="K22" s="3">
         <v>326900</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>21865400</v>
+        <v>22011600</v>
       </c>
       <c r="E23" s="3">
-        <v>17026900</v>
+        <v>17140700</v>
       </c>
       <c r="F23" s="3">
-        <v>6415100</v>
+        <v>6458000</v>
       </c>
       <c r="G23" s="3">
-        <v>4124500</v>
+        <v>4152100</v>
       </c>
       <c r="H23" s="3">
-        <v>11409800</v>
+        <v>11486000</v>
       </c>
       <c r="I23" s="3">
-        <v>15041100</v>
+        <v>15141600</v>
       </c>
       <c r="J23" s="3">
-        <v>13540900</v>
+        <v>13631500</v>
       </c>
       <c r="K23" s="3">
         <v>13483200</v>
@@ -1143,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>5917600</v>
+        <v>5957100</v>
       </c>
       <c r="E24" s="3">
-        <v>5127100</v>
+        <v>5161400</v>
       </c>
       <c r="F24" s="3">
-        <v>2074100</v>
+        <v>2088000</v>
       </c>
       <c r="G24" s="3">
-        <v>1207200</v>
+        <v>1215300</v>
       </c>
       <c r="H24" s="3">
-        <v>3244700</v>
+        <v>3266400</v>
       </c>
       <c r="I24" s="3">
-        <v>3607600</v>
+        <v>3631700</v>
       </c>
       <c r="J24" s="3">
-        <v>4081500</v>
+        <v>4108700</v>
       </c>
       <c r="K24" s="3">
         <v>4266900</v>
@@ -1203,25 +1203,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>15947800</v>
+        <v>16054400</v>
       </c>
       <c r="E26" s="3">
-        <v>11899700</v>
+        <v>11979300</v>
       </c>
       <c r="F26" s="3">
-        <v>4341000</v>
+        <v>4370000</v>
       </c>
       <c r="G26" s="3">
-        <v>2917300</v>
+        <v>2936800</v>
       </c>
       <c r="H26" s="3">
-        <v>8165100</v>
+        <v>8219600</v>
       </c>
       <c r="I26" s="3">
-        <v>11433400</v>
+        <v>11509900</v>
       </c>
       <c r="J26" s="3">
-        <v>9459500</v>
+        <v>9522700</v>
       </c>
       <c r="K26" s="3">
         <v>9216200</v>
@@ -1233,25 +1233,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>15616100</v>
+        <v>15720500</v>
       </c>
       <c r="E27" s="3">
-        <v>11479800</v>
+        <v>11556500</v>
       </c>
       <c r="F27" s="3">
-        <v>3929600</v>
+        <v>3955900</v>
       </c>
       <c r="G27" s="3">
-        <v>2559800</v>
+        <v>2576900</v>
       </c>
       <c r="H27" s="3">
-        <v>7806400</v>
+        <v>7858600</v>
       </c>
       <c r="I27" s="3">
-        <v>11068400</v>
+        <v>11142400</v>
       </c>
       <c r="J27" s="3">
-        <v>9181600</v>
+        <v>9243000</v>
       </c>
       <c r="K27" s="3">
         <v>8912600</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>13295400</v>
+        <v>13384300</v>
       </c>
       <c r="F29" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2460700</v>
+        <v>-2477200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1967500</v>
+        <v>-1980700</v>
       </c>
       <c r="F32" s="3">
-        <v>-604100</v>
+        <v>-608200</v>
       </c>
       <c r="G32" s="3">
-        <v>-449100</v>
+        <v>-452100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1081200</v>
+        <v>-1088400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1390300</v>
+        <v>-1399600</v>
       </c>
       <c r="J32" s="3">
-        <v>-840000</v>
+        <v>-845600</v>
       </c>
       <c r="K32" s="3">
         <v>-332200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15616100</v>
+        <v>15720500</v>
       </c>
       <c r="E33" s="3">
-        <v>24775200</v>
+        <v>24940800</v>
       </c>
       <c r="F33" s="3">
-        <v>3905900</v>
+        <v>3932000</v>
       </c>
       <c r="G33" s="3">
-        <v>2559800</v>
+        <v>2576900</v>
       </c>
       <c r="H33" s="3">
-        <v>7806400</v>
+        <v>7858600</v>
       </c>
       <c r="I33" s="3">
-        <v>11068400</v>
+        <v>11142400</v>
       </c>
       <c r="J33" s="3">
-        <v>9181600</v>
+        <v>9243000</v>
       </c>
       <c r="K33" s="3">
         <v>8912600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15616100</v>
+        <v>15720500</v>
       </c>
       <c r="E35" s="3">
-        <v>24775200</v>
+        <v>24940800</v>
       </c>
       <c r="F35" s="3">
-        <v>3905900</v>
+        <v>3932000</v>
       </c>
       <c r="G35" s="3">
-        <v>2559800</v>
+        <v>2576900</v>
       </c>
       <c r="H35" s="3">
-        <v>7806400</v>
+        <v>7858600</v>
       </c>
       <c r="I35" s="3">
-        <v>11068400</v>
+        <v>11142400</v>
       </c>
       <c r="J35" s="3">
-        <v>9181600</v>
+        <v>9243000</v>
       </c>
       <c r="K35" s="3">
         <v>8912600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19038500</v>
+        <v>19165800</v>
       </c>
       <c r="E41" s="3">
-        <v>24897900</v>
+        <v>25064400</v>
       </c>
       <c r="F41" s="3">
-        <v>24820400</v>
+        <v>24986300</v>
       </c>
       <c r="G41" s="3">
-        <v>20335100</v>
+        <v>20471100</v>
       </c>
       <c r="H41" s="3">
-        <v>17072100</v>
+        <v>17186200</v>
       </c>
       <c r="I41" s="3">
-        <v>13000300</v>
+        <v>13087300</v>
       </c>
       <c r="J41" s="3">
-        <v>11825400</v>
+        <v>11904500</v>
       </c>
       <c r="K41" s="3">
         <v>10512300</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7192600</v>
+        <v>7240700</v>
       </c>
       <c r="E42" s="3">
-        <v>7262600</v>
+        <v>7311200</v>
       </c>
       <c r="F42" s="3">
-        <v>5818500</v>
+        <v>5857400</v>
       </c>
       <c r="G42" s="3">
-        <v>8498900</v>
+        <v>8555700</v>
       </c>
       <c r="H42" s="3">
-        <v>9633900</v>
+        <v>9698400</v>
       </c>
       <c r="I42" s="3">
-        <v>13707900</v>
+        <v>13799500</v>
       </c>
       <c r="J42" s="3">
-        <v>10389900</v>
+        <v>10459400</v>
       </c>
       <c r="K42" s="3">
         <v>7538300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55153400</v>
+        <v>55522200</v>
       </c>
       <c r="E43" s="3">
-        <v>50954600</v>
+        <v>51295300</v>
       </c>
       <c r="F43" s="3">
-        <v>63194600</v>
+        <v>63617200</v>
       </c>
       <c r="G43" s="3">
-        <v>74956500</v>
+        <v>75457700</v>
       </c>
       <c r="H43" s="3">
-        <v>69721700</v>
+        <v>70187900</v>
       </c>
       <c r="I43" s="3">
-        <v>74707800</v>
+        <v>75207300</v>
       </c>
       <c r="J43" s="3">
-        <v>58220400</v>
+        <v>58609700</v>
       </c>
       <c r="K43" s="3">
         <v>52317000</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27591300</v>
+        <v>27775700</v>
       </c>
       <c r="E44" s="3">
-        <v>23116700</v>
+        <v>23271300</v>
       </c>
       <c r="F44" s="3">
-        <v>28477500</v>
+        <v>28667900</v>
       </c>
       <c r="G44" s="3">
-        <v>32045300</v>
+        <v>32259600</v>
       </c>
       <c r="H44" s="3">
-        <v>31756700</v>
+        <v>31969000</v>
       </c>
       <c r="I44" s="3">
-        <v>27661300</v>
+        <v>27846200</v>
       </c>
       <c r="J44" s="3">
-        <v>27336000</v>
+        <v>27518800</v>
       </c>
       <c r="K44" s="3">
         <v>25138100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1809200</v>
+        <v>1821300</v>
       </c>
       <c r="E45" s="3">
-        <v>4612400</v>
+        <v>4643200</v>
       </c>
       <c r="F45" s="3">
-        <v>1816700</v>
+        <v>1828900</v>
       </c>
       <c r="G45" s="3">
-        <v>1792000</v>
+        <v>1803900</v>
       </c>
       <c r="H45" s="3">
-        <v>2780600</v>
+        <v>2799100</v>
       </c>
       <c r="I45" s="3">
-        <v>8235100</v>
+        <v>8290100</v>
       </c>
       <c r="J45" s="3">
-        <v>2128000</v>
+        <v>2142200</v>
       </c>
       <c r="K45" s="3">
         <v>1668500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110785000</v>
+        <v>111526000</v>
       </c>
       <c r="E46" s="3">
-        <v>110844000</v>
+        <v>111585000</v>
       </c>
       <c r="F46" s="3">
-        <v>124128000</v>
+        <v>124958000</v>
       </c>
       <c r="G46" s="3">
-        <v>137628000</v>
+        <v>138548000</v>
       </c>
       <c r="H46" s="3">
-        <v>130965000</v>
+        <v>131841000</v>
       </c>
       <c r="I46" s="3">
-        <v>115116000</v>
+        <v>115886000</v>
       </c>
       <c r="J46" s="3">
-        <v>109900000</v>
+        <v>110635000</v>
       </c>
       <c r="K46" s="3">
         <v>97174100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70714600</v>
+        <v>71187400</v>
       </c>
       <c r="E47" s="3">
-        <v>69242500</v>
+        <v>69705500</v>
       </c>
       <c r="F47" s="3">
-        <v>67711200</v>
+        <v>68163900</v>
       </c>
       <c r="G47" s="3">
-        <v>67635800</v>
+        <v>68088000</v>
       </c>
       <c r="H47" s="3">
-        <v>64406200</v>
+        <v>64836800</v>
       </c>
       <c r="I47" s="3">
-        <v>62927600</v>
+        <v>63348300</v>
       </c>
       <c r="J47" s="3">
-        <v>53834200</v>
+        <v>54194200</v>
       </c>
       <c r="K47" s="3">
         <v>49895300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74092900</v>
+        <v>74588200</v>
       </c>
       <c r="E48" s="3">
-        <v>77892200</v>
+        <v>78413000</v>
       </c>
       <c r="F48" s="3">
-        <v>89165200</v>
+        <v>89761300</v>
       </c>
       <c r="G48" s="3">
-        <v>95440300</v>
+        <v>96078400</v>
       </c>
       <c r="H48" s="3">
-        <v>86608600</v>
+        <v>87187700</v>
       </c>
       <c r="I48" s="3">
-        <v>161654000</v>
+        <v>162734000</v>
       </c>
       <c r="J48" s="3">
-        <v>78961500</v>
+        <v>79489500</v>
       </c>
       <c r="K48" s="3">
         <v>66933300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17089300</v>
+        <v>17203600</v>
       </c>
       <c r="E49" s="3">
-        <v>16158900</v>
+        <v>16266900</v>
       </c>
       <c r="F49" s="3">
-        <v>17660100</v>
+        <v>17778200</v>
       </c>
       <c r="G49" s="3">
-        <v>17206700</v>
+        <v>17321700</v>
       </c>
       <c r="H49" s="3">
-        <v>15939200</v>
+        <v>16045800</v>
       </c>
       <c r="I49" s="3">
-        <v>29582400</v>
+        <v>29780200</v>
       </c>
       <c r="J49" s="3">
-        <v>13028300</v>
+        <v>13115400</v>
       </c>
       <c r="K49" s="3">
         <v>10653000</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7328300</v>
+        <v>7377300</v>
       </c>
       <c r="E52" s="3">
-        <v>5674200</v>
+        <v>5712100</v>
       </c>
       <c r="F52" s="3">
-        <v>9046000</v>
+        <v>9106400</v>
       </c>
       <c r="G52" s="3">
-        <v>7784900</v>
+        <v>7837000</v>
       </c>
       <c r="H52" s="3">
-        <v>5356500</v>
+        <v>5392300</v>
       </c>
       <c r="I52" s="3">
-        <v>6065100</v>
+        <v>6105700</v>
       </c>
       <c r="J52" s="3">
-        <v>5949900</v>
+        <v>5989700</v>
       </c>
       <c r="K52" s="3">
         <v>5105900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>280010000</v>
+        <v>281882000</v>
       </c>
       <c r="E54" s="3">
-        <v>279812000</v>
+        <v>281683000</v>
       </c>
       <c r="F54" s="3">
-        <v>307710000</v>
+        <v>309768000</v>
       </c>
       <c r="G54" s="3">
-        <v>325696000</v>
+        <v>327873000</v>
       </c>
       <c r="H54" s="3">
-        <v>303276000</v>
+        <v>305303000</v>
       </c>
       <c r="I54" s="3">
-        <v>274981000</v>
+        <v>276820000</v>
       </c>
       <c r="J54" s="3">
-        <v>261674000</v>
+        <v>263423000</v>
       </c>
       <c r="K54" s="3">
         <v>229762000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13142500</v>
+        <v>13230400</v>
       </c>
       <c r="E57" s="3">
-        <v>11474400</v>
+        <v>11551100</v>
       </c>
       <c r="F57" s="3">
-        <v>13329900</v>
+        <v>13419000</v>
       </c>
       <c r="G57" s="3">
-        <v>13684200</v>
+        <v>13775700</v>
       </c>
       <c r="H57" s="3">
-        <v>15275800</v>
+        <v>15378000</v>
       </c>
       <c r="I57" s="3">
-        <v>13408500</v>
+        <v>13498100</v>
       </c>
       <c r="J57" s="3">
-        <v>12456500</v>
+        <v>12539800</v>
       </c>
       <c r="K57" s="3">
         <v>11159800</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53614500</v>
+        <v>53973000</v>
       </c>
       <c r="E58" s="3">
-        <v>56321900</v>
+        <v>56698400</v>
       </c>
       <c r="F58" s="3">
-        <v>63863400</v>
+        <v>64290400</v>
       </c>
       <c r="G58" s="3">
-        <v>67415000</v>
+        <v>67865700</v>
       </c>
       <c r="H58" s="3">
-        <v>60564900</v>
+        <v>60969800</v>
       </c>
       <c r="I58" s="3">
-        <v>52494600</v>
+        <v>52845500</v>
       </c>
       <c r="J58" s="3">
-        <v>50924400</v>
+        <v>51264900</v>
       </c>
       <c r="K58" s="3">
         <v>43707000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28444200</v>
+        <v>28634300</v>
       </c>
       <c r="E59" s="3">
-        <v>26621000</v>
+        <v>26799000</v>
       </c>
       <c r="F59" s="3">
-        <v>30291000</v>
+        <v>30493600</v>
       </c>
       <c r="G59" s="3">
-        <v>32839000</v>
+        <v>33058500</v>
       </c>
       <c r="H59" s="3">
-        <v>29643800</v>
+        <v>29842000</v>
       </c>
       <c r="I59" s="3">
-        <v>38521800</v>
+        <v>38779300</v>
       </c>
       <c r="J59" s="3">
-        <v>27570800</v>
+        <v>27755100</v>
       </c>
       <c r="K59" s="3">
         <v>26684900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>95201200</v>
+        <v>95837700</v>
       </c>
       <c r="E60" s="3">
-        <v>94417200</v>
+        <v>95048500</v>
       </c>
       <c r="F60" s="3">
-        <v>107484000</v>
+        <v>108203000</v>
       </c>
       <c r="G60" s="3">
-        <v>113938000</v>
+        <v>114700000</v>
       </c>
       <c r="H60" s="3">
-        <v>105485000</v>
+        <v>106190000</v>
       </c>
       <c r="I60" s="3">
-        <v>94362300</v>
+        <v>94993200</v>
       </c>
       <c r="J60" s="3">
-        <v>90951700</v>
+        <v>91559800</v>
       </c>
       <c r="K60" s="3">
         <v>81551700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66822700</v>
+        <v>67269500</v>
       </c>
       <c r="E61" s="3">
-        <v>79198500</v>
+        <v>79728000</v>
       </c>
       <c r="F61" s="3">
-        <v>93193800</v>
+        <v>93816900</v>
       </c>
       <c r="G61" s="3">
-        <v>106806000</v>
+        <v>107520000</v>
       </c>
       <c r="H61" s="3">
-        <v>95480100</v>
+        <v>96118500</v>
       </c>
       <c r="I61" s="3">
-        <v>84405300</v>
+        <v>84969600</v>
       </c>
       <c r="J61" s="3">
-        <v>75811600</v>
+        <v>76318500</v>
       </c>
       <c r="K61" s="3">
         <v>63301200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24791300</v>
+        <v>24957100</v>
       </c>
       <c r="E62" s="3">
-        <v>27402800</v>
+        <v>27586000</v>
       </c>
       <c r="F62" s="3">
-        <v>39997100</v>
+        <v>40264600</v>
       </c>
       <c r="G62" s="3">
-        <v>37278000</v>
+        <v>37527200</v>
       </c>
       <c r="H62" s="3">
-        <v>31178400</v>
+        <v>31386900</v>
       </c>
       <c r="I62" s="3">
-        <v>28596000</v>
+        <v>28787200</v>
       </c>
       <c r="J62" s="3">
-        <v>31230100</v>
+        <v>31438900</v>
       </c>
       <c r="K62" s="3">
         <v>27116500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>188027000</v>
+        <v>189284000</v>
       </c>
       <c r="E66" s="3">
-        <v>202328000</v>
+        <v>203681000</v>
       </c>
       <c r="F66" s="3">
-        <v>242352000</v>
+        <v>243972000</v>
       </c>
       <c r="G66" s="3">
-        <v>259634000</v>
+        <v>261370000</v>
       </c>
       <c r="H66" s="3">
-        <v>233636000</v>
+        <v>235198000</v>
       </c>
       <c r="I66" s="3">
-        <v>206201000</v>
+        <v>207579000</v>
       </c>
       <c r="J66" s="3">
-        <v>199267000</v>
+        <v>200600000</v>
       </c>
       <c r="K66" s="3">
         <v>173094000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>72900700</v>
+        <v>73388100</v>
       </c>
       <c r="E72" s="3">
-        <v>60511000</v>
+        <v>60915600</v>
       </c>
       <c r="F72" s="3">
-        <v>50733800</v>
+        <v>51073000</v>
       </c>
       <c r="G72" s="3">
-        <v>49891700</v>
+        <v>50225300</v>
       </c>
       <c r="H72" s="3">
-        <v>53295800</v>
+        <v>53652100</v>
       </c>
       <c r="I72" s="3">
-        <v>51209800</v>
+        <v>51552200</v>
       </c>
       <c r="J72" s="3">
-        <v>43931100</v>
+        <v>44224800</v>
       </c>
       <c r="K72" s="3">
         <v>39136500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>91983400</v>
+        <v>92598400</v>
       </c>
       <c r="E76" s="3">
-        <v>77484000</v>
+        <v>78002100</v>
       </c>
       <c r="F76" s="3">
-        <v>65358100</v>
+        <v>65795100</v>
       </c>
       <c r="G76" s="3">
-        <v>66061400</v>
+        <v>66503000</v>
       </c>
       <c r="H76" s="3">
-        <v>69639900</v>
+        <v>70105500</v>
       </c>
       <c r="I76" s="3">
-        <v>68780500</v>
+        <v>69240400</v>
       </c>
       <c r="J76" s="3">
-        <v>62406400</v>
+        <v>62823600</v>
       </c>
       <c r="K76" s="3">
         <v>56667500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15616100</v>
+        <v>15720500</v>
       </c>
       <c r="E81" s="3">
-        <v>24775200</v>
+        <v>24940800</v>
       </c>
       <c r="F81" s="3">
-        <v>3905900</v>
+        <v>3932000</v>
       </c>
       <c r="G81" s="3">
-        <v>2559800</v>
+        <v>2576900</v>
       </c>
       <c r="H81" s="3">
-        <v>7806400</v>
+        <v>7858600</v>
       </c>
       <c r="I81" s="3">
-        <v>11068400</v>
+        <v>11142400</v>
       </c>
       <c r="J81" s="3">
-        <v>9181600</v>
+        <v>9243000</v>
       </c>
       <c r="K81" s="3">
         <v>8912600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7022500</v>
+        <v>7069400</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="3">
-        <v>9645800</v>
+        <v>9710300</v>
       </c>
       <c r="G83" s="3">
-        <v>8347100</v>
+        <v>8402900</v>
       </c>
       <c r="H83" s="3">
-        <v>6789900</v>
+        <v>6835300</v>
       </c>
       <c r="I83" s="3">
-        <v>6112500</v>
+        <v>6153400</v>
       </c>
       <c r="J83" s="3">
-        <v>5899300</v>
+        <v>5938700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18193100</v>
+        <v>18314800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="3">
-        <v>24049300</v>
+        <v>24210100</v>
       </c>
       <c r="G89" s="3">
-        <v>8494600</v>
+        <v>8551400</v>
       </c>
       <c r="H89" s="3">
-        <v>369400</v>
+        <v>371800</v>
       </c>
       <c r="I89" s="3">
-        <v>-1779000</v>
+        <v>-1790900</v>
       </c>
       <c r="J89" s="3">
-        <v>3996400</v>
+        <v>4023100</v>
       </c>
       <c r="K89" s="3">
         <v>-1347900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3748700</v>
+        <v>-3773800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="3">
-        <v>-6182500</v>
+        <v>-6223800</v>
       </c>
       <c r="G91" s="3">
-        <v>-7752600</v>
+        <v>-7804400</v>
       </c>
       <c r="H91" s="3">
-        <v>-8113400</v>
+        <v>-8167600</v>
       </c>
       <c r="I91" s="3">
-        <v>-7262600</v>
+        <v>-7311200</v>
       </c>
       <c r="J91" s="3">
-        <v>-6341900</v>
+        <v>-6384300</v>
       </c>
       <c r="K91" s="3">
         <v>-5125000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3718500</v>
+        <v>-3743400</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="3">
-        <v>-6914800</v>
+        <v>-6961000</v>
       </c>
       <c r="G94" s="3">
-        <v>-11422700</v>
+        <v>-11499000</v>
       </c>
       <c r="H94" s="3">
-        <v>-10683900</v>
+        <v>-10755400</v>
       </c>
       <c r="I94" s="3">
-        <v>-10249900</v>
+        <v>-10318500</v>
       </c>
       <c r="J94" s="3">
-        <v>-15793800</v>
+        <v>-15899400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5760300</v>
+        <v>-5798900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1037100</v>
+        <v>-1044000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3744400</v>
+        <v>-3769400</v>
       </c>
       <c r="H96" s="3">
-        <v>-4205300</v>
+        <v>-4233400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3744400</v>
+        <v>-3769400</v>
       </c>
       <c r="J96" s="3">
-        <v>-3744400</v>
+        <v>-3769400</v>
       </c>
       <c r="K96" s="3">
         <v>-2546600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20495600</v>
+        <v>-20632600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="3">
-        <v>-11573400</v>
+        <v>-11650800</v>
       </c>
       <c r="G100" s="3">
-        <v>6060800</v>
+        <v>6101300</v>
       </c>
       <c r="H100" s="3">
-        <v>14243100</v>
+        <v>14338300</v>
       </c>
       <c r="I100" s="3">
-        <v>14138600</v>
+        <v>14233100</v>
       </c>
       <c r="J100" s="3">
-        <v>12932500</v>
+        <v>13019000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>94800</v>
+        <v>95400</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F101" s="3">
-        <v>-1075800</v>
+        <v>-1083000</v>
       </c>
       <c r="G101" s="3">
-        <v>130300</v>
+        <v>131200</v>
       </c>
       <c r="H101" s="3">
-        <v>143200</v>
+        <v>144200</v>
       </c>
       <c r="I101" s="3">
-        <v>-934700</v>
+        <v>-941000</v>
       </c>
       <c r="J101" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>24</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5926200</v>
+        <v>-5965800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F102" s="3">
-        <v>4485300</v>
+        <v>4515300</v>
       </c>
       <c r="G102" s="3">
-        <v>3263000</v>
+        <v>3284800</v>
       </c>
       <c r="H102" s="3">
-        <v>4071800</v>
+        <v>4099000</v>
       </c>
       <c r="I102" s="3">
-        <v>1174900</v>
+        <v>1182800</v>
       </c>
       <c r="J102" s="3">
-        <v>1125400</v>
+        <v>1132900</v>
       </c>
       <c r="K102" s="3">
         <v>-1466400</v>

--- a/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBGAF_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>162633400</v>
+        <v>162768400</v>
       </c>
       <c r="E8" s="3">
-        <v>145153400</v>
+        <v>145273900</v>
       </c>
       <c r="F8" s="3">
-        <v>132019500</v>
+        <v>132129100</v>
       </c>
       <c r="G8" s="3">
-        <v>187272900</v>
+        <v>187428300</v>
       </c>
       <c r="H8" s="3">
-        <v>181437100</v>
+        <v>181587800</v>
       </c>
       <c r="I8" s="3">
-        <v>177959400</v>
+        <v>178107100</v>
       </c>
       <c r="J8" s="3">
-        <v>166150300</v>
+        <v>166288200</v>
       </c>
       <c r="K8" s="3">
         <v>158136100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>125507300</v>
+        <v>125740700</v>
       </c>
       <c r="E9" s="3">
-        <v>111184200</v>
+        <v>111276500</v>
       </c>
       <c r="F9" s="3">
-        <v>119221700</v>
+        <v>119320700</v>
       </c>
       <c r="G9" s="3">
-        <v>148347200</v>
+        <v>148470300</v>
       </c>
       <c r="H9" s="3">
-        <v>145445000</v>
+        <v>145565800</v>
       </c>
       <c r="I9" s="3">
-        <v>140527500</v>
+        <v>140644200</v>
       </c>
       <c r="J9" s="3">
-        <v>131361500</v>
+        <v>131470500</v>
       </c>
       <c r="K9" s="3">
         <v>124813300</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37126100</v>
+        <v>37027800</v>
       </c>
       <c r="E10" s="3">
-        <v>33969200</v>
+        <v>33997400</v>
       </c>
       <c r="F10" s="3">
-        <v>12797800</v>
+        <v>12808400</v>
       </c>
       <c r="G10" s="3">
-        <v>38925700</v>
+        <v>38958000</v>
       </c>
       <c r="H10" s="3">
-        <v>35992100</v>
+        <v>36022000</v>
       </c>
       <c r="I10" s="3">
-        <v>37431800</v>
+        <v>37462900</v>
       </c>
       <c r="J10" s="3">
-        <v>34788800</v>
+        <v>34817700</v>
       </c>
       <c r="K10" s="3">
         <v>33322800</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6038400</v>
+        <v>6043500</v>
       </c>
       <c r="E12" s="3">
-        <v>5783700</v>
+        <v>5788500</v>
       </c>
       <c r="F12" s="3">
-        <v>14365400</v>
+        <v>14377300</v>
       </c>
       <c r="G12" s="3">
-        <v>7105200</v>
+        <v>7111100</v>
       </c>
       <c r="H12" s="3">
-        <v>7062900</v>
+        <v>7068800</v>
       </c>
       <c r="I12" s="3">
-        <v>6385300</v>
+        <v>6390700</v>
       </c>
       <c r="J12" s="3">
-        <v>5657900</v>
+        <v>5662600</v>
       </c>
       <c r="K12" s="3">
         <v>4995900</v>
@@ -878,25 +878,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-120300</v>
+        <v>-249600</v>
       </c>
       <c r="E14" s="3">
-        <v>1374600</v>
+        <v>1375800</v>
       </c>
       <c r="F14" s="3">
-        <v>1490600</v>
+        <v>1491900</v>
       </c>
       <c r="G14" s="3">
-        <v>6529500</v>
+        <v>6535000</v>
       </c>
       <c r="H14" s="3">
-        <v>144200</v>
+        <v>144300</v>
       </c>
       <c r="I14" s="3">
         <v>27100</v>
       </c>
       <c r="J14" s="3">
-        <v>299200</v>
+        <v>299500</v>
       </c>
       <c r="K14" s="3">
         <v>320600</v>
@@ -908,25 +908,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="E15" s="3">
-        <v>174500</v>
+        <v>174700</v>
       </c>
       <c r="F15" s="3">
-        <v>212500</v>
+        <v>212700</v>
       </c>
       <c r="G15" s="3">
-        <v>150700</v>
+        <v>150800</v>
       </c>
       <c r="H15" s="3">
-        <v>226600</v>
+        <v>226800</v>
       </c>
       <c r="I15" s="3">
-        <v>198400</v>
+        <v>198600</v>
       </c>
       <c r="J15" s="3">
-        <v>159400</v>
+        <v>159500</v>
       </c>
       <c r="K15" s="3">
         <v>160800</v>
@@ -949,25 +949,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>142701200</v>
+        <v>142819600</v>
       </c>
       <c r="E17" s="3">
-        <v>129586800</v>
+        <v>129694400</v>
       </c>
       <c r="F17" s="3">
-        <v>125875900</v>
+        <v>125980400</v>
       </c>
       <c r="G17" s="3">
-        <v>182832400</v>
+        <v>182984200</v>
       </c>
       <c r="H17" s="3">
-        <v>170324000</v>
+        <v>170465400</v>
       </c>
       <c r="I17" s="3">
-        <v>163815100</v>
+        <v>163951100</v>
       </c>
       <c r="J17" s="3">
-        <v>153018500</v>
+        <v>153145600</v>
       </c>
       <c r="K17" s="3">
         <v>144658200</v>
@@ -979,25 +979,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>19932300</v>
+        <v>19948800</v>
       </c>
       <c r="E18" s="3">
-        <v>15566600</v>
+        <v>15579500</v>
       </c>
       <c r="F18" s="3">
-        <v>6143600</v>
+        <v>6148700</v>
       </c>
       <c r="G18" s="3">
-        <v>4440500</v>
+        <v>4444200</v>
       </c>
       <c r="H18" s="3">
-        <v>11113100</v>
+        <v>11122300</v>
       </c>
       <c r="I18" s="3">
-        <v>14144300</v>
+        <v>14156000</v>
       </c>
       <c r="J18" s="3">
-        <v>13131700</v>
+        <v>13142600</v>
       </c>
       <c r="K18" s="3">
         <v>13477900</v>
@@ -1023,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2477200</v>
+        <v>2479200</v>
       </c>
       <c r="E20" s="3">
-        <v>1980700</v>
+        <v>1982300</v>
       </c>
       <c r="F20" s="3">
-        <v>608200</v>
+        <v>608700</v>
       </c>
       <c r="G20" s="3">
-        <v>452100</v>
+        <v>452400</v>
       </c>
       <c r="H20" s="3">
-        <v>1088400</v>
+        <v>1089300</v>
       </c>
       <c r="I20" s="3">
-        <v>1399600</v>
+        <v>1400700</v>
       </c>
       <c r="J20" s="3">
-        <v>845600</v>
+        <v>846300</v>
       </c>
       <c r="K20" s="3">
         <v>332200</v>
@@ -1053,25 +1053,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>29478800</v>
+        <v>29500700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="3">
-        <v>16462100</v>
+        <v>16472100</v>
       </c>
       <c r="G21" s="3">
-        <v>13295400</v>
+        <v>13303300</v>
       </c>
       <c r="H21" s="3">
-        <v>19036800</v>
+        <v>19050100</v>
       </c>
       <c r="I21" s="3">
-        <v>21697200</v>
+        <v>21712900</v>
       </c>
       <c r="J21" s="3">
-        <v>19916000</v>
+        <v>19930300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>24</v>
@@ -1083,25 +1083,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>397900</v>
+        <v>398200</v>
       </c>
       <c r="E22" s="3">
-        <v>406500</v>
+        <v>406900</v>
       </c>
       <c r="F22" s="3">
-        <v>293800</v>
+        <v>294000</v>
       </c>
       <c r="G22" s="3">
-        <v>740400</v>
+        <v>741100</v>
       </c>
       <c r="H22" s="3">
-        <v>715500</v>
+        <v>716100</v>
       </c>
       <c r="I22" s="3">
-        <v>402200</v>
+        <v>402500</v>
       </c>
       <c r="J22" s="3">
-        <v>345800</v>
+        <v>346100</v>
       </c>
       <c r="K22" s="3">
         <v>326900</v>
@@ -1113,25 +1113,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>22011600</v>
+        <v>22029800</v>
       </c>
       <c r="E23" s="3">
-        <v>17140700</v>
+        <v>17154900</v>
       </c>
       <c r="F23" s="3">
-        <v>6458000</v>
+        <v>6463300</v>
       </c>
       <c r="G23" s="3">
-        <v>4152100</v>
+        <v>4155600</v>
       </c>
       <c r="H23" s="3">
-        <v>11486000</v>
+        <v>11495600</v>
       </c>
       <c r="I23" s="3">
-        <v>15141600</v>
+        <v>15154200</v>
       </c>
       <c r="J23" s="3">
-        <v>13631500</v>
+        <v>13642800</v>
       </c>
       <c r="K23" s="3">
         <v>13483200</v>
@@ -1143,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>5957100</v>
+        <v>5962100</v>
       </c>
       <c r="E24" s="3">
-        <v>5161400</v>
+        <v>5165700</v>
       </c>
       <c r="F24" s="3">
-        <v>2088000</v>
+        <v>2089700</v>
       </c>
       <c r="G24" s="3">
-        <v>1215300</v>
+        <v>1216300</v>
       </c>
       <c r="H24" s="3">
-        <v>3266400</v>
+        <v>3269100</v>
       </c>
       <c r="I24" s="3">
-        <v>3631700</v>
+        <v>3634800</v>
       </c>
       <c r="J24" s="3">
-        <v>4108700</v>
+        <v>4112200</v>
       </c>
       <c r="K24" s="3">
         <v>4266900</v>
@@ -1203,25 +1203,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>16054400</v>
+        <v>16067800</v>
       </c>
       <c r="E26" s="3">
-        <v>11979300</v>
+        <v>11989300</v>
       </c>
       <c r="F26" s="3">
-        <v>4370000</v>
+        <v>4373600</v>
       </c>
       <c r="G26" s="3">
-        <v>2936800</v>
+        <v>2939300</v>
       </c>
       <c r="H26" s="3">
-        <v>8219600</v>
+        <v>8226500</v>
       </c>
       <c r="I26" s="3">
-        <v>11509900</v>
+        <v>11519400</v>
       </c>
       <c r="J26" s="3">
-        <v>9522700</v>
+        <v>9530600</v>
       </c>
       <c r="K26" s="3">
         <v>9216200</v>
@@ -1233,25 +1233,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>15720500</v>
+        <v>15733600</v>
       </c>
       <c r="E27" s="3">
-        <v>11556500</v>
+        <v>11566100</v>
       </c>
       <c r="F27" s="3">
-        <v>3955900</v>
+        <v>3959200</v>
       </c>
       <c r="G27" s="3">
-        <v>2576900</v>
+        <v>2579000</v>
       </c>
       <c r="H27" s="3">
-        <v>7858600</v>
+        <v>7865200</v>
       </c>
       <c r="I27" s="3">
-        <v>11142400</v>
+        <v>11151600</v>
       </c>
       <c r="J27" s="3">
-        <v>9243000</v>
+        <v>9250700</v>
       </c>
       <c r="K27" s="3">
         <v>8912600</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>13384300</v>
+        <v>13395400</v>
       </c>
       <c r="F29" s="3">
         <v>-23900</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2477200</v>
+        <v>-2479200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1980700</v>
+        <v>-1982300</v>
       </c>
       <c r="F32" s="3">
-        <v>-608200</v>
+        <v>-608700</v>
       </c>
       <c r="G32" s="3">
-        <v>-452100</v>
+        <v>-452400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1088400</v>
+        <v>-1089300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1399600</v>
+        <v>-1400700</v>
       </c>
       <c r="J32" s="3">
-        <v>-845600</v>
+        <v>-846300</v>
       </c>
       <c r="K32" s="3">
         <v>-332200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15720500</v>
+        <v>15733600</v>
       </c>
       <c r="E33" s="3">
-        <v>24940800</v>
+        <v>24961500</v>
       </c>
       <c r="F33" s="3">
-        <v>3932000</v>
+        <v>3935300</v>
       </c>
       <c r="G33" s="3">
-        <v>2576900</v>
+        <v>2579000</v>
       </c>
       <c r="H33" s="3">
-        <v>7858600</v>
+        <v>7865200</v>
       </c>
       <c r="I33" s="3">
-        <v>11142400</v>
+        <v>11151600</v>
       </c>
       <c r="J33" s="3">
-        <v>9243000</v>
+        <v>9250700</v>
       </c>
       <c r="K33" s="3">
         <v>8912600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15720500</v>
+        <v>15733600</v>
       </c>
       <c r="E35" s="3">
-        <v>24940800</v>
+        <v>24961500</v>
       </c>
       <c r="F35" s="3">
-        <v>3932000</v>
+        <v>3935300</v>
       </c>
       <c r="G35" s="3">
-        <v>2576900</v>
+        <v>2579000</v>
       </c>
       <c r="H35" s="3">
-        <v>7858600</v>
+        <v>7865200</v>
       </c>
       <c r="I35" s="3">
-        <v>11142400</v>
+        <v>11151600</v>
       </c>
       <c r="J35" s="3">
-        <v>9243000</v>
+        <v>9250700</v>
       </c>
       <c r="K35" s="3">
         <v>8912600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19165800</v>
+        <v>19181700</v>
       </c>
       <c r="E41" s="3">
-        <v>25064400</v>
+        <v>25085200</v>
       </c>
       <c r="F41" s="3">
-        <v>24986300</v>
+        <v>25007100</v>
       </c>
       <c r="G41" s="3">
-        <v>20471100</v>
+        <v>20488100</v>
       </c>
       <c r="H41" s="3">
-        <v>17186200</v>
+        <v>17200500</v>
       </c>
       <c r="I41" s="3">
-        <v>13087300</v>
+        <v>13098100</v>
       </c>
       <c r="J41" s="3">
-        <v>11904500</v>
+        <v>11914400</v>
       </c>
       <c r="K41" s="3">
         <v>10512300</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7240700</v>
+        <v>7246700</v>
       </c>
       <c r="E42" s="3">
-        <v>7311200</v>
+        <v>7317200</v>
       </c>
       <c r="F42" s="3">
-        <v>5857400</v>
+        <v>5862300</v>
       </c>
       <c r="G42" s="3">
-        <v>8555700</v>
+        <v>8562800</v>
       </c>
       <c r="H42" s="3">
-        <v>9698400</v>
+        <v>9706400</v>
       </c>
       <c r="I42" s="3">
-        <v>13799500</v>
+        <v>13811000</v>
       </c>
       <c r="J42" s="3">
-        <v>10459400</v>
+        <v>10468100</v>
       </c>
       <c r="K42" s="3">
         <v>7538300</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55522200</v>
+        <v>55568300</v>
       </c>
       <c r="E43" s="3">
-        <v>51295300</v>
+        <v>51337900</v>
       </c>
       <c r="F43" s="3">
-        <v>63617200</v>
+        <v>63670000</v>
       </c>
       <c r="G43" s="3">
-        <v>75457700</v>
+        <v>75520300</v>
       </c>
       <c r="H43" s="3">
-        <v>70187900</v>
+        <v>70246200</v>
       </c>
       <c r="I43" s="3">
-        <v>75207300</v>
+        <v>75269700</v>
       </c>
       <c r="J43" s="3">
-        <v>58609700</v>
+        <v>58658400</v>
       </c>
       <c r="K43" s="3">
         <v>52317000</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27775700</v>
+        <v>27798800</v>
       </c>
       <c r="E44" s="3">
-        <v>23271300</v>
+        <v>23290600</v>
       </c>
       <c r="F44" s="3">
-        <v>28667900</v>
+        <v>28691700</v>
       </c>
       <c r="G44" s="3">
-        <v>32259600</v>
+        <v>32286300</v>
       </c>
       <c r="H44" s="3">
-        <v>31969000</v>
+        <v>31995600</v>
       </c>
       <c r="I44" s="3">
-        <v>27846200</v>
+        <v>27869300</v>
       </c>
       <c r="J44" s="3">
-        <v>27518800</v>
+        <v>27541600</v>
       </c>
       <c r="K44" s="3">
         <v>25138100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1821300</v>
+        <v>1822800</v>
       </c>
       <c r="E45" s="3">
-        <v>4643200</v>
+        <v>4647100</v>
       </c>
       <c r="F45" s="3">
-        <v>1828900</v>
+        <v>1830400</v>
       </c>
       <c r="G45" s="3">
-        <v>1803900</v>
+        <v>1805400</v>
       </c>
       <c r="H45" s="3">
-        <v>2799100</v>
+        <v>2801500</v>
       </c>
       <c r="I45" s="3">
-        <v>8290100</v>
+        <v>8297000</v>
       </c>
       <c r="J45" s="3">
-        <v>2142200</v>
+        <v>2144000</v>
       </c>
       <c r="K45" s="3">
         <v>1668500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>111526000</v>
+        <v>111618000</v>
       </c>
       <c r="E46" s="3">
-        <v>111585000</v>
+        <v>111678000</v>
       </c>
       <c r="F46" s="3">
-        <v>124958000</v>
+        <v>125061000</v>
       </c>
       <c r="G46" s="3">
-        <v>138548000</v>
+        <v>138663000</v>
       </c>
       <c r="H46" s="3">
-        <v>131841000</v>
+        <v>131950000</v>
       </c>
       <c r="I46" s="3">
-        <v>115886000</v>
+        <v>115982000</v>
       </c>
       <c r="J46" s="3">
-        <v>110635000</v>
+        <v>110726000</v>
       </c>
       <c r="K46" s="3">
         <v>97174100</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71187400</v>
+        <v>71246500</v>
       </c>
       <c r="E47" s="3">
-        <v>69705500</v>
+        <v>69763300</v>
       </c>
       <c r="F47" s="3">
-        <v>68163900</v>
+        <v>68220500</v>
       </c>
       <c r="G47" s="3">
-        <v>68088000</v>
+        <v>68144500</v>
       </c>
       <c r="H47" s="3">
-        <v>64836800</v>
+        <v>64890600</v>
       </c>
       <c r="I47" s="3">
-        <v>63348300</v>
+        <v>63400900</v>
       </c>
       <c r="J47" s="3">
-        <v>54194200</v>
+        <v>54239200</v>
       </c>
       <c r="K47" s="3">
         <v>49895300</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74588200</v>
+        <v>74650200</v>
       </c>
       <c r="E48" s="3">
-        <v>78413000</v>
+        <v>78478100</v>
       </c>
       <c r="F48" s="3">
-        <v>89761300</v>
+        <v>89835800</v>
       </c>
       <c r="G48" s="3">
-        <v>96078400</v>
+        <v>96158100</v>
       </c>
       <c r="H48" s="3">
-        <v>87187700</v>
+        <v>87260000</v>
       </c>
       <c r="I48" s="3">
-        <v>162734000</v>
+        <v>162869000</v>
       </c>
       <c r="J48" s="3">
-        <v>79489500</v>
+        <v>79555500</v>
       </c>
       <c r="K48" s="3">
         <v>66933300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17203600</v>
+        <v>17217900</v>
       </c>
       <c r="E49" s="3">
-        <v>16266900</v>
+        <v>16280400</v>
       </c>
       <c r="F49" s="3">
-        <v>17778200</v>
+        <v>17792900</v>
       </c>
       <c r="G49" s="3">
-        <v>17321700</v>
+        <v>17336100</v>
       </c>
       <c r="H49" s="3">
-        <v>16045800</v>
+        <v>16059100</v>
       </c>
       <c r="I49" s="3">
-        <v>29780200</v>
+        <v>29805000</v>
       </c>
       <c r="J49" s="3">
-        <v>13115400</v>
+        <v>13126300</v>
       </c>
       <c r="K49" s="3">
         <v>10653000</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7377300</v>
+        <v>7383400</v>
       </c>
       <c r="E52" s="3">
-        <v>5712100</v>
+        <v>5716900</v>
       </c>
       <c r="F52" s="3">
-        <v>9106400</v>
+        <v>9114000</v>
       </c>
       <c r="G52" s="3">
-        <v>7837000</v>
+        <v>7843500</v>
       </c>
       <c r="H52" s="3">
-        <v>5392300</v>
+        <v>5396800</v>
       </c>
       <c r="I52" s="3">
-        <v>6105700</v>
+        <v>6110700</v>
       </c>
       <c r="J52" s="3">
-        <v>5989700</v>
+        <v>5994600</v>
       </c>
       <c r="K52" s="3">
         <v>5105900</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>281882000</v>
+        <v>282116000</v>
       </c>
       <c r="E54" s="3">
-        <v>281683000</v>
+        <v>281917000</v>
       </c>
       <c r="F54" s="3">
-        <v>309768000</v>
+        <v>310025000</v>
       </c>
       <c r="G54" s="3">
-        <v>327873000</v>
+        <v>328145000</v>
       </c>
       <c r="H54" s="3">
-        <v>305303000</v>
+        <v>305557000</v>
       </c>
       <c r="I54" s="3">
-        <v>276820000</v>
+        <v>277049000</v>
       </c>
       <c r="J54" s="3">
-        <v>263423000</v>
+        <v>263642000</v>
       </c>
       <c r="K54" s="3">
         <v>229762000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13230400</v>
+        <v>13241300</v>
       </c>
       <c r="E57" s="3">
-        <v>11551100</v>
+        <v>11560700</v>
       </c>
       <c r="F57" s="3">
-        <v>13419000</v>
+        <v>13430100</v>
       </c>
       <c r="G57" s="3">
-        <v>13775700</v>
+        <v>13787100</v>
       </c>
       <c r="H57" s="3">
-        <v>15378000</v>
+        <v>15390700</v>
       </c>
       <c r="I57" s="3">
-        <v>13498100</v>
+        <v>13509300</v>
       </c>
       <c r="J57" s="3">
-        <v>12539800</v>
+        <v>12550200</v>
       </c>
       <c r="K57" s="3">
         <v>11159800</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53973000</v>
+        <v>54017800</v>
       </c>
       <c r="E58" s="3">
-        <v>56698400</v>
+        <v>56745500</v>
       </c>
       <c r="F58" s="3">
-        <v>64290400</v>
+        <v>64343800</v>
       </c>
       <c r="G58" s="3">
-        <v>67865700</v>
+        <v>67922100</v>
       </c>
       <c r="H58" s="3">
-        <v>60969800</v>
+        <v>61020400</v>
       </c>
       <c r="I58" s="3">
-        <v>52845500</v>
+        <v>52889400</v>
       </c>
       <c r="J58" s="3">
-        <v>51264900</v>
+        <v>51307500</v>
       </c>
       <c r="K58" s="3">
         <v>43707000</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28634300</v>
+        <v>28658100</v>
       </c>
       <c r="E59" s="3">
-        <v>26799000</v>
+        <v>26821200</v>
       </c>
       <c r="F59" s="3">
-        <v>30493600</v>
+        <v>30518900</v>
       </c>
       <c r="G59" s="3">
-        <v>33058500</v>
+        <v>33086000</v>
       </c>
       <c r="H59" s="3">
-        <v>29842000</v>
+        <v>29866800</v>
       </c>
       <c r="I59" s="3">
-        <v>38779300</v>
+        <v>38811500</v>
       </c>
       <c r="J59" s="3">
-        <v>27755100</v>
+        <v>27778200</v>
       </c>
       <c r="K59" s="3">
         <v>26684900</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>95837700</v>
+        <v>95917300</v>
       </c>
       <c r="E60" s="3">
-        <v>95048500</v>
+        <v>95127400</v>
       </c>
       <c r="F60" s="3">
-        <v>108203000</v>
+        <v>108293000</v>
       </c>
       <c r="G60" s="3">
-        <v>114700000</v>
+        <v>114795000</v>
       </c>
       <c r="H60" s="3">
-        <v>106190000</v>
+        <v>106278000</v>
       </c>
       <c r="I60" s="3">
-        <v>94993200</v>
+        <v>95072000</v>
       </c>
       <c r="J60" s="3">
-        <v>91559800</v>
+        <v>91635800</v>
       </c>
       <c r="K60" s="3">
         <v>81551700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67269500</v>
+        <v>67325300</v>
       </c>
       <c r="E61" s="3">
-        <v>79728000</v>
+        <v>79794200</v>
       </c>
       <c r="F61" s="3">
-        <v>93816900</v>
+        <v>93894800</v>
       </c>
       <c r="G61" s="3">
-        <v>107520000</v>
+        <v>107609000</v>
       </c>
       <c r="H61" s="3">
-        <v>96118500</v>
+        <v>96198300</v>
       </c>
       <c r="I61" s="3">
-        <v>84969600</v>
+        <v>85040100</v>
       </c>
       <c r="J61" s="3">
-        <v>76318500</v>
+        <v>76381800</v>
       </c>
       <c r="K61" s="3">
         <v>63301200</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24957100</v>
+        <v>24977800</v>
       </c>
       <c r="E62" s="3">
-        <v>27586000</v>
+        <v>27608900</v>
       </c>
       <c r="F62" s="3">
-        <v>40264600</v>
+        <v>40298000</v>
       </c>
       <c r="G62" s="3">
-        <v>37527200</v>
+        <v>37558400</v>
       </c>
       <c r="H62" s="3">
-        <v>31386900</v>
+        <v>31412900</v>
       </c>
       <c r="I62" s="3">
-        <v>28787200</v>
+        <v>28811100</v>
       </c>
       <c r="J62" s="3">
-        <v>31438900</v>
+        <v>31465000</v>
       </c>
       <c r="K62" s="3">
         <v>27116500</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>189284000</v>
+        <v>189441000</v>
       </c>
       <c r="E66" s="3">
-        <v>203681000</v>
+        <v>203850000</v>
       </c>
       <c r="F66" s="3">
-        <v>243972000</v>
+        <v>244175000</v>
       </c>
       <c r="G66" s="3">
-        <v>261370000</v>
+        <v>261587000</v>
       </c>
       <c r="H66" s="3">
-        <v>235198000</v>
+        <v>235393000</v>
       </c>
       <c r="I66" s="3">
-        <v>207579000</v>
+        <v>207752000</v>
       </c>
       <c r="J66" s="3">
-        <v>200600000</v>
+        <v>200766000</v>
       </c>
       <c r="K66" s="3">
         <v>173094000</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>73388100</v>
+        <v>73449100</v>
       </c>
       <c r="E72" s="3">
-        <v>60915600</v>
+        <v>60966200</v>
       </c>
       <c r="F72" s="3">
-        <v>51073000</v>
+        <v>51115400</v>
       </c>
       <c r="G72" s="3">
-        <v>50225300</v>
+        <v>50267000</v>
       </c>
       <c r="H72" s="3">
-        <v>53652100</v>
+        <v>53696700</v>
       </c>
       <c r="I72" s="3">
-        <v>51552200</v>
+        <v>51595000</v>
       </c>
       <c r="J72" s="3">
-        <v>44224800</v>
+        <v>44261500</v>
       </c>
       <c r="K72" s="3">
         <v>39136500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92598400</v>
+        <v>92675300</v>
       </c>
       <c r="E76" s="3">
-        <v>78002100</v>
+        <v>78066800</v>
       </c>
       <c r="F76" s="3">
-        <v>65795100</v>
+        <v>65849700</v>
       </c>
       <c r="G76" s="3">
-        <v>66503000</v>
+        <v>66558200</v>
       </c>
       <c r="H76" s="3">
-        <v>70105500</v>
+        <v>70163700</v>
       </c>
       <c r="I76" s="3">
-        <v>69240400</v>
+        <v>69297900</v>
       </c>
       <c r="J76" s="3">
-        <v>62823600</v>
+        <v>62875800</v>
       </c>
       <c r="K76" s="3">
         <v>56667500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15720500</v>
+        <v>15733600</v>
       </c>
       <c r="E81" s="3">
-        <v>24940800</v>
+        <v>24961500</v>
       </c>
       <c r="F81" s="3">
-        <v>3932000</v>
+        <v>3935300</v>
       </c>
       <c r="G81" s="3">
-        <v>2576900</v>
+        <v>2579000</v>
       </c>
       <c r="H81" s="3">
-        <v>7858600</v>
+        <v>7865200</v>
       </c>
       <c r="I81" s="3">
-        <v>11142400</v>
+        <v>11151600</v>
       </c>
       <c r="J81" s="3">
-        <v>9243000</v>
+        <v>9250700</v>
       </c>
       <c r="K81" s="3">
         <v>8912600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7069400</v>
+        <v>7075300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="3">
-        <v>9710300</v>
+        <v>9718300</v>
       </c>
       <c r="G83" s="3">
-        <v>8402900</v>
+        <v>8409800</v>
       </c>
       <c r="H83" s="3">
-        <v>6835300</v>
+        <v>6840900</v>
       </c>
       <c r="I83" s="3">
-        <v>6153400</v>
+        <v>6158500</v>
       </c>
       <c r="J83" s="3">
-        <v>5938700</v>
+        <v>5943600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>24</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18314800</v>
+        <v>18330000</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="3">
-        <v>24210100</v>
+        <v>24230200</v>
       </c>
       <c r="G89" s="3">
-        <v>8551400</v>
+        <v>8558500</v>
       </c>
       <c r="H89" s="3">
-        <v>371800</v>
+        <v>372200</v>
       </c>
       <c r="I89" s="3">
-        <v>-1790900</v>
+        <v>-1792400</v>
       </c>
       <c r="J89" s="3">
-        <v>4023100</v>
+        <v>4026400</v>
       </c>
       <c r="K89" s="3">
         <v>-1347900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3773800</v>
+        <v>-3776900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="3">
-        <v>-6223800</v>
+        <v>-6229000</v>
       </c>
       <c r="G91" s="3">
-        <v>-7804400</v>
+        <v>-7810900</v>
       </c>
       <c r="H91" s="3">
-        <v>-8167600</v>
+        <v>-8174400</v>
       </c>
       <c r="I91" s="3">
-        <v>-7311200</v>
+        <v>-7317200</v>
       </c>
       <c r="J91" s="3">
-        <v>-6384300</v>
+        <v>-6389600</v>
       </c>
       <c r="K91" s="3">
         <v>-5125000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3743400</v>
+        <v>-3746500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F94" s="3">
-        <v>-6961000</v>
+        <v>-6966800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11499000</v>
+        <v>-11508600</v>
       </c>
       <c r="H94" s="3">
-        <v>-10755400</v>
+        <v>-10764300</v>
       </c>
       <c r="I94" s="3">
-        <v>-10318500</v>
+        <v>-10327000</v>
       </c>
       <c r="J94" s="3">
-        <v>-15899400</v>
+        <v>-15912600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5798900</v>
+        <v>-5803700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1044000</v>
+        <v>-1044900</v>
       </c>
       <c r="G96" s="3">
-        <v>-3769400</v>
+        <v>-3772500</v>
       </c>
       <c r="H96" s="3">
-        <v>-4233400</v>
+        <v>-4236900</v>
       </c>
       <c r="I96" s="3">
-        <v>-3769400</v>
+        <v>-3772500</v>
       </c>
       <c r="J96" s="3">
-        <v>-3769400</v>
+        <v>-3772500</v>
       </c>
       <c r="K96" s="3">
         <v>-2546600</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20632600</v>
+        <v>-20649700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="3">
-        <v>-11650800</v>
+        <v>-11660500</v>
       </c>
       <c r="G100" s="3">
-        <v>6101300</v>
+        <v>6106400</v>
       </c>
       <c r="H100" s="3">
-        <v>14338300</v>
+        <v>14350200</v>
       </c>
       <c r="I100" s="3">
-        <v>14233100</v>
+        <v>14245000</v>
       </c>
       <c r="J100" s="3">
-        <v>13019000</v>
+        <v>13029800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
@@ -3215,22 +3215,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>95400</v>
+        <v>95500</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F101" s="3">
-        <v>-1083000</v>
+        <v>-1083900</v>
       </c>
       <c r="G101" s="3">
-        <v>131200</v>
+        <v>131300</v>
       </c>
       <c r="H101" s="3">
-        <v>144200</v>
+        <v>144300</v>
       </c>
       <c r="I101" s="3">
-        <v>-941000</v>
+        <v>-941800</v>
       </c>
       <c r="J101" s="3">
         <v>-9800</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5965800</v>
+        <v>-5970800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F102" s="3">
-        <v>4515300</v>
+        <v>4519000</v>
       </c>
       <c r="G102" s="3">
-        <v>3284800</v>
+        <v>3287600</v>
       </c>
       <c r="H102" s="3">
-        <v>4099000</v>
+        <v>4102400</v>
       </c>
       <c r="I102" s="3">
-        <v>1182800</v>
+        <v>1183700</v>
       </c>
       <c r="J102" s="3">
-        <v>1132900</v>
+        <v>1133800</v>
       </c>
       <c r="K102" s="3">
         <v>-1466400</v>
